--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.003686302915592822</v>
+        <v>0.00534353648721151</v>
       </c>
       <c r="C2">
-        <v>0.0009343749999999997</v>
+        <v>0.0013544375</v>
       </c>
       <c r="D2">
-        <v>0.0002200643845529221</v>
+        <v>0.0003189976774345403</v>
       </c>
       <c r="E2">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F2">
-        <v>0.0005960751898723899</v>
+        <v>0.0008640498621889341</v>
       </c>
       <c r="G2">
-        <v>0.0001114093170528399</v>
+        <v>0.0001614950708931166</v>
       </c>
       <c r="H2">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I2">
-        <v>0.00558745368574657</v>
+        <v>0.008099378516643075</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.003833008169107731</v>
+        <v>0.005556195319915296</v>
       </c>
       <c r="C3">
-        <v>0.0008193749999999998</v>
+        <v>0.0011877375</v>
       </c>
       <c r="D3">
-        <v>0.0002017256858401787</v>
+        <v>0.0002924145376483287</v>
       </c>
       <c r="E3">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F3">
-        <v>0.0004672623310440347</v>
+        <v>0.0006773272224786137</v>
       </c>
       <c r="G3">
-        <v>9.604251470072399E-05</v>
+        <v>0.0001392198887009626</v>
       </c>
       <c r="H3">
-        <v>2.018568270204038E-05</v>
+        <v>2.926046353417505E-05</v>
       </c>
       <c r="I3">
-        <v>0.005462145765559731</v>
+        <v>0.007917736514076585</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.004041062892274336</v>
+        <v>0.005857784209931574</v>
       </c>
       <c r="C4">
-        <v>0.0008768750000000002</v>
+        <v>0.0012710875</v>
       </c>
       <c r="D4">
-        <v>0.0001986692360547214</v>
+        <v>0.0002879840143506268</v>
       </c>
       <c r="E4">
-        <v>2.301223327970786E-05</v>
+        <v>3.335773293675913E-05</v>
       </c>
       <c r="F4">
-        <v>0.0005278801469632608</v>
+        <v>0.000765196699989353</v>
       </c>
       <c r="G4">
-        <v>8.643826323065165E-05</v>
+        <v>0.0001252978998308663</v>
       </c>
       <c r="H4">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I4">
-        <v>0.005772288392440896</v>
+        <v>0.008367308478433881</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.004019723946308527</v>
+        <v>0.005826852016083755</v>
       </c>
       <c r="C5">
-        <v>0.0006468749999999999</v>
+        <v>0.0009376874999999999</v>
       </c>
       <c r="D5">
-        <v>0.0001833869871274351</v>
+        <v>0.0002658313978621167</v>
       </c>
       <c r="E5">
-        <v>2.301223327970786E-05</v>
+        <v>3.335773293675913E-05</v>
       </c>
       <c r="F5">
-        <v>0.0005329316316231965</v>
+        <v>0.0007725191564485816</v>
       </c>
       <c r="G5">
-        <v>6.530890999649232E-05</v>
+        <v>9.46695243166545E-05</v>
       </c>
       <c r="H5">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I5">
-        <v>0.005485919204845934</v>
+        <v>0.007952197664763631</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.004155759726840535</v>
+        <v>0.006024044751863632</v>
       </c>
       <c r="C6">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D6">
-        <v>0.0002170079347674648</v>
+        <v>0.0003145671541368383</v>
       </c>
       <c r="E6">
-        <v>2.914882882096328E-05</v>
+        <v>4.225312838656156E-05</v>
       </c>
       <c r="F6">
-        <v>0.0004571593617241637</v>
+        <v>0.0006626823095601571</v>
       </c>
       <c r="G6">
-        <v>6.915061058452131E-05</v>
+        <v>0.0001002383198646931</v>
       </c>
       <c r="H6">
-        <v>1.101037238293112E-05</v>
+        <v>1.596025283682276E-05</v>
       </c>
       <c r="I6">
-        <v>0.005715486835120579</v>
+        <v>0.008284970916648706</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.004241115510703758</v>
+        <v>0.006147773527254921</v>
       </c>
       <c r="C7">
-        <v>0.0006756249999999999</v>
+        <v>0.0009793625000000001</v>
       </c>
       <c r="D7">
-        <v>0.0002261772841238367</v>
+        <v>0.000327858724029944</v>
       </c>
       <c r="E7">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F7">
-        <v>0.000401593030464873</v>
+        <v>0.0005821352885086465</v>
       </c>
       <c r="G7">
-        <v>5.570465852641995E-05</v>
+        <v>8.074753544655831E-05</v>
       </c>
       <c r="H7">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I7">
-        <v>0.005651685970584222</v>
+        <v>0.008192487402577294</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.00464655548405405</v>
+        <v>0.00673548521036357</v>
       </c>
       <c r="C8">
-        <v>0.0007474999999999998</v>
+        <v>0.00108355</v>
       </c>
       <c r="D8">
-        <v>0.0002139514849820077</v>
+        <v>0.0003101366308391363</v>
       </c>
       <c r="E8">
-        <v>5.216106210067114E-05</v>
+        <v>7.561086132332067E-05</v>
       </c>
       <c r="F8">
-        <v>0.0004369534230844215</v>
+        <v>0.0006333924837232445</v>
       </c>
       <c r="G8">
-        <v>3.649615558627511E-05</v>
+        <v>5.290355770636577E-05</v>
       </c>
       <c r="H8">
-        <v>2.018568270204038E-05</v>
+        <v>2.926046353417505E-05</v>
       </c>
       <c r="I8">
-        <v>0.006153803292509467</v>
+        <v>0.008920339207489811</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.005126681768284664</v>
+        <v>0.007431459571939598</v>
       </c>
       <c r="C9">
-        <v>0.0006324999999999999</v>
+        <v>0.0009168500000000001</v>
       </c>
       <c r="D9">
-        <v>0.000204782135625636</v>
+        <v>0.0002968450609460302</v>
       </c>
       <c r="E9">
-        <v>9.511723088945913E-05</v>
+        <v>0.0001378786294719377</v>
       </c>
       <c r="F9">
-        <v>0.0004091702574547763</v>
+        <v>0.0005931189731974888</v>
       </c>
       <c r="G9">
-        <v>3.649615558627511E-05</v>
+        <v>5.290355770636577E-05</v>
       </c>
       <c r="H9">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I9">
-        <v>0.006517592982287565</v>
+        <v>0.009447676088237713</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.004926629149855241</v>
+        <v>0.00714147025461625</v>
       </c>
       <c r="C10">
-        <v>0.00071875</v>
+        <v>0.001041875</v>
       </c>
       <c r="D10">
-        <v>0.000253685332192952</v>
+        <v>0.0003677334337092616</v>
       </c>
       <c r="E10">
-        <v>0.0001150611663985393</v>
+        <v>0.0001667886646837956</v>
       </c>
       <c r="F10">
-        <v>0.0002197395827071947</v>
+        <v>0.0003185268559764291</v>
       </c>
       <c r="G10">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H10">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I10">
-        <v>0.006266262321461596</v>
+        <v>0.009083355904240418</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.003563603976289443</v>
+        <v>0.005165676372586527</v>
       </c>
       <c r="C11">
-        <v>0.0005893749999999999</v>
+        <v>0.0008543375000000001</v>
       </c>
       <c r="D11">
-        <v>0.000180330537341978</v>
+        <v>0.0002614008745644149</v>
       </c>
       <c r="E11">
-        <v>9.204893311883143E-05</v>
+        <v>0.0001334309317470365</v>
       </c>
       <c r="F11">
-        <v>0.000113658404848549</v>
+        <v>0.0001647552703326359</v>
       </c>
       <c r="G11">
-        <v>2.305020352817376E-05</v>
+        <v>3.341277328823101E-05</v>
       </c>
       <c r="H11">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I11">
-        <v>0.004567572241318439</v>
+        <v>0.006620993848937257</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.00297945033047553</v>
+        <v>0.004318907566002356</v>
       </c>
       <c r="C12">
-        <v>0.0006468749999999999</v>
+        <v>0.0009376874999999999</v>
       </c>
       <c r="D12">
-        <v>0.0001589353888437771</v>
+        <v>0.0002303872114805013</v>
       </c>
       <c r="E12">
-        <v>7.210499760975128E-05</v>
+        <v>0.0001045208965351786</v>
       </c>
       <c r="F12">
-        <v>0.0001010296931987102</v>
+        <v>0.0001464491291845652</v>
       </c>
       <c r="G12">
-        <v>2.88127544102172E-05</v>
+        <v>4.176596661028876E-05</v>
       </c>
       <c r="H12">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I12">
-        <v>0.003994548412793274</v>
+        <v>0.005790358438370771</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.002459313522559032</v>
+        <v>0.003564935340961659</v>
       </c>
       <c r="C13">
-        <v>0.0004312499999999998</v>
+        <v>0.0006251249999999998</v>
       </c>
       <c r="D13">
-        <v>0.0001283708909892046</v>
+        <v>0.0001860819785034819</v>
       </c>
       <c r="E13">
-        <v>5.369521098598499E-05</v>
+        <v>7.783471018577129E-05</v>
       </c>
       <c r="F13">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G13">
-        <v>1.344595205810136E-05</v>
+        <v>1.949078441813475E-05</v>
       </c>
       <c r="H13">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I13">
-        <v>0.003140260547319322</v>
+        <v>0.004552012462940271</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.001883161981482296</v>
+        <v>0.002729766107070425</v>
       </c>
       <c r="C14">
-        <v>0.000388125</v>
+        <v>0.0005626124999999999</v>
       </c>
       <c r="D14">
-        <v>6.724189528005956E-05</v>
+        <v>9.747151254944285E-05</v>
       </c>
       <c r="E14">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F14">
-        <v>6.314355824919386E-05</v>
+        <v>9.153070574035323E-05</v>
       </c>
       <c r="G14">
-        <v>9.604251470072403E-06</v>
+        <v>1.392198887009626E-05</v>
       </c>
       <c r="H14">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I14">
-        <v>0.00244132825483811</v>
+        <v>0.003538864522447938</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.001106957821976138</v>
+        <v>0.001604607555855844</v>
       </c>
       <c r="C15">
-        <v>0.0001725</v>
+        <v>0.00025005</v>
       </c>
       <c r="D15">
-        <v>3.667739742548703E-05</v>
+        <v>5.316627957242336E-05</v>
       </c>
       <c r="E15">
-        <v>1.534148885313857E-05</v>
+        <v>2.223848862450608E-05</v>
       </c>
       <c r="F15">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G15">
-        <v>1.344595205810136E-05</v>
+        <v>1.949078441813475E-05</v>
       </c>
       <c r="H15">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I15">
-        <v>0.001397272568976041</v>
+        <v>0.002025437715202661</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.0008909009940723607</v>
+        <v>0.001291419093146632</v>
       </c>
       <c r="C16">
-        <v>0.000330625</v>
+        <v>0.0004792624999999999</v>
       </c>
       <c r="D16">
-        <v>4.279029699640153E-05</v>
+        <v>6.202732616782725E-05</v>
       </c>
       <c r="E16">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F16">
-        <v>2.778316562964531E-05</v>
+        <v>4.027351052575543E-05</v>
       </c>
       <c r="G16">
-        <v>1.536680235211584E-05</v>
+        <v>2.2275182192154E-05</v>
       </c>
       <c r="H16">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I16">
-        <v>0.001313903767770287</v>
+        <v>0.001904589200759191</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.0005654820680938336</v>
+        <v>0.0008197031369673232</v>
       </c>
       <c r="C17">
-        <v>0.0004456249999999999</v>
+        <v>0.0006459625</v>
       </c>
       <c r="D17">
-        <v>2.139514849820076E-05</v>
+        <v>3.101366308391363E-05</v>
       </c>
       <c r="E17">
-        <v>1.534148885313857E-06</v>
+        <v>2.223848862450609E-06</v>
       </c>
       <c r="F17">
-        <v>5.809207358925834E-05</v>
+        <v>8.420824928112496E-05</v>
       </c>
       <c r="G17">
-        <v>1.536680235211584E-05</v>
+        <v>2.2275182192154E-05</v>
       </c>
       <c r="I17">
-        <v>0.001107495241418722</v>
+        <v>0.001605386580386966</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0003867683956302166</v>
+        <v>0.0005606460134918009</v>
       </c>
       <c r="C18">
-        <v>0.000388125</v>
+        <v>0.0005626124999999999</v>
       </c>
       <c r="D18">
-        <v>2.139514849820076E-05</v>
+        <v>3.101366308391363E-05</v>
       </c>
       <c r="E18">
-        <v>1.534148885313857E-06</v>
+        <v>2.223848862450609E-06</v>
       </c>
       <c r="F18">
-        <v>3.030890795961306E-05</v>
+        <v>4.393473875536955E-05</v>
       </c>
       <c r="G18">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="I18">
-        <v>0.0008492609542075035</v>
+        <v>0.001231059139707747</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.000400105236858845</v>
+        <v>0.000579978634646691</v>
       </c>
       <c r="C19">
-        <v>0.000330625</v>
+        <v>0.0004792624999999999</v>
       </c>
       <c r="D19">
-        <v>3.056449785457253E-05</v>
+        <v>4.43052329770195E-05</v>
       </c>
       <c r="E19">
-        <v>7.670744426569283E-06</v>
+        <v>1.111924431225304E-05</v>
       </c>
       <c r="F19">
-        <v>5.304058892932284E-05</v>
+        <v>7.688579282189674E-05</v>
       </c>
       <c r="G19">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="I19">
-        <v>0.00083929372071544</v>
+        <v>0.001216610984724034</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.0006855136391514874</v>
+        <v>0.0009936967273613294</v>
       </c>
       <c r="C20">
-        <v>0.00020125</v>
+        <v>0.000291725</v>
       </c>
       <c r="D20">
-        <v>4.584674678185877E-05</v>
+        <v>6.645784946552919E-05</v>
       </c>
       <c r="E20">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F20">
-        <v>0.0001060811778586457</v>
+        <v>0.0001537715856437935</v>
       </c>
       <c r="G20">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="I20">
-        <v>0.001064423363682093</v>
+        <v>0.001542951084572216</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.001589751474452476</v>
+        <v>0.002304448441662851</v>
       </c>
       <c r="C21">
-        <v>0.0001725</v>
+        <v>0.00025005</v>
       </c>
       <c r="D21">
-        <v>0.0001069757424910038</v>
+        <v>0.0001550683154195681</v>
       </c>
       <c r="E21">
-        <v>5.829765764192657E-05</v>
+        <v>8.450625677312313E-05</v>
       </c>
       <c r="F21">
-        <v>0.0001818534477576783</v>
+        <v>0.0002636084325322172</v>
       </c>
       <c r="G21">
-        <v>5.570465852641995E-05</v>
+        <v>8.074753544655831E-05</v>
       </c>
       <c r="H21">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I21">
-        <v>0.002166918042933326</v>
+        <v>0.003141089023973788</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.002830077708714895</v>
+        <v>0.004102382209067593</v>
       </c>
       <c r="C22">
-        <v>0.000575</v>
+        <v>0.0008335</v>
       </c>
       <c r="D22">
-        <v>0.0001925563364838069</v>
+        <v>0.0002791229677552227</v>
       </c>
       <c r="E22">
-        <v>0.000150346590760758</v>
+        <v>0.0002179371885201597</v>
       </c>
       <c r="F22">
-        <v>0.0003030890795961306</v>
+        <v>0.0004393473875536955</v>
       </c>
       <c r="G22">
-        <v>8.643826323065165E-05</v>
+        <v>0.0001252978998308663</v>
       </c>
       <c r="H22">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I22">
-        <v>0.004146683289105352</v>
+        <v>0.006010887863424889</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.003918363952970955</v>
+        <v>0.005679924095306591</v>
       </c>
       <c r="C23">
-        <v>0.0002875</v>
+        <v>0.00041675</v>
       </c>
       <c r="D23">
-        <v>0.0001283708909892046</v>
+        <v>0.0001860819785034819</v>
       </c>
       <c r="E23">
-        <v>0.0001258002085957363</v>
+        <v>0.0001823556067209499</v>
       </c>
       <c r="F23">
-        <v>0.0003586554108554212</v>
+        <v>0.0005198944086052059</v>
       </c>
       <c r="G23">
-        <v>7.875486205459371E-05</v>
+        <v>0.0001141603087347893</v>
       </c>
       <c r="H23">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I23">
-        <v>0.004915795946104128</v>
+        <v>0.007125766819265722</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.004585206014402361</v>
+        <v>0.006646555153051074</v>
       </c>
       <c r="C24">
-        <v>0.000345</v>
+        <v>0.0005001</v>
       </c>
       <c r="D24">
-        <v>0.0001589353888437771</v>
+        <v>0.0002303872114805013</v>
       </c>
       <c r="E24">
-        <v>5.522935987129885E-05</v>
+        <v>8.005855904822193E-05</v>
       </c>
       <c r="F24">
-        <v>0.0003813870918251311</v>
+        <v>0.0005528454626717334</v>
       </c>
       <c r="G24">
-        <v>0.0001094884667588254</v>
+        <v>0.0001587106731190973</v>
       </c>
       <c r="H24">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I24">
-        <v>0.005649926818211968</v>
+        <v>0.008189937396486392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.003702307125067176</v>
+        <v>0.005366735632597382</v>
       </c>
       <c r="C25">
-        <v>0.0007043749999999999</v>
+        <v>0.0010210375</v>
       </c>
       <c r="D25">
-        <v>0.0002078385854110932</v>
+        <v>0.0003012755842437326</v>
       </c>
       <c r="E25">
-        <v>4.142201990347414E-05</v>
+        <v>6.004391928616642E-05</v>
       </c>
       <c r="F25">
-        <v>0.0004874682696837768</v>
+        <v>0.0007066170483155268</v>
       </c>
       <c r="G25">
-        <v>0.0001286969696989702</v>
+        <v>0.0001865546508592898</v>
       </c>
       <c r="H25">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I25">
-        <v>0.005279448218019778</v>
+        <v>0.007652904503859979</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.003790330277176123</v>
+        <v>0.005494330932219649</v>
       </c>
       <c r="C26">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D26">
-        <v>0.0001986692360547214</v>
+        <v>0.0002879840143506268</v>
       </c>
       <c r="E26">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F26">
-        <v>0.0006364870671518745</v>
+        <v>0.0009226295138627604</v>
       </c>
       <c r="G26">
-        <v>0.0001325386702869991</v>
+        <v>0.0001921234464073283</v>
       </c>
       <c r="H26">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I26">
-        <v>0.005577172253472957</v>
+        <v>0.008084474910034277</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.003723646071032983</v>
+        <v>0.005397667826445199</v>
       </c>
       <c r="C27">
-        <v>0.0009343749999999997</v>
+        <v>0.0013544375</v>
       </c>
       <c r="D27">
-        <v>0.0001772740875565206</v>
+        <v>0.0002569703512667131</v>
       </c>
       <c r="E27">
-        <v>1.994393550908014E-05</v>
+        <v>2.891003521185792E-05</v>
       </c>
       <c r="F27">
-        <v>0.0005278801469632608</v>
+        <v>0.000765196699989353</v>
       </c>
       <c r="G27">
-        <v>0.0001229344188169267</v>
+        <v>0.000178201457537232</v>
       </c>
       <c r="H27">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I27">
-        <v>0.005522569218453168</v>
+        <v>0.008005324249705589</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.003800999750159026</v>
+        <v>0.005509797029143562</v>
       </c>
       <c r="C28">
-        <v>0.00071875</v>
+        <v>0.001041875</v>
       </c>
       <c r="D28">
-        <v>0.0001558789390583199</v>
+        <v>0.0002259566881827994</v>
       </c>
       <c r="E28">
-        <v>2.914882882096328E-05</v>
+        <v>4.225312838656156E-05</v>
       </c>
       <c r="F28">
-        <v>0.0004470563924042927</v>
+        <v>0.0006480373966417007</v>
       </c>
       <c r="G28">
-        <v>9.027996381868055E-05</v>
+        <v>0.0001308666953789048</v>
       </c>
       <c r="H28">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I28">
-        <v>0.005265969681090966</v>
+        <v>0.007633366485546645</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.004022391314554254</v>
+        <v>0.005830718540314729</v>
       </c>
       <c r="C29">
-        <v>0.0006468749999999999</v>
+        <v>0.0009376874999999999</v>
       </c>
       <c r="D29">
-        <v>0.0002261772841238367</v>
+        <v>0.000327858724029944</v>
       </c>
       <c r="E29">
-        <v>3.835372213284643E-05</v>
+        <v>5.559622156126521E-05</v>
       </c>
       <c r="F29">
-        <v>0.0005101999506534867</v>
+        <v>0.000739568102382054</v>
       </c>
       <c r="G29">
-        <v>8.835911352466609E-05</v>
+        <v>0.0001280822976048855</v>
       </c>
       <c r="H29">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I29">
-        <v>0.005556212191818774</v>
+        <v>0.008054091933705994</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.003531595557340736</v>
+        <v>0.00511927808181479</v>
       </c>
       <c r="C30">
-        <v>0.0006181250000000002</v>
+        <v>0.0008960125000000002</v>
       </c>
       <c r="D30">
-        <v>0.0002292337339092939</v>
+        <v>0.0003322892473276461</v>
       </c>
       <c r="E30">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F30">
-        <v>0.0004647365887140667</v>
+        <v>0.0006736659942489997</v>
       </c>
       <c r="G30">
-        <v>5.186295793839097E-05</v>
+        <v>7.517873989851979E-05</v>
       </c>
       <c r="H30">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I30">
-        <v>0.004934780716578084</v>
+        <v>0.007153286482204928</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.004153092358594808</v>
+        <v>0.00602017822763265</v>
       </c>
       <c r="C31">
-        <v>0.0004743749999999999</v>
+        <v>0.0006876374999999999</v>
       </c>
       <c r="D31">
-        <v>0.0001650482884146917</v>
+        <v>0.0002392482580759052</v>
       </c>
       <c r="E31">
-        <v>2.301223327970786E-05</v>
+        <v>3.335773293675913E-05</v>
       </c>
       <c r="F31">
-        <v>0.0004546336193941959</v>
+        <v>0.0006590210813305435</v>
       </c>
       <c r="G31">
-        <v>8.067571234860816E-05</v>
+        <v>0.0001169447065088086</v>
       </c>
       <c r="H31">
-        <v>2.75259309573278E-05</v>
+        <v>3.990063209205689E-05</v>
       </c>
       <c r="I31">
-        <v>0.005378363142989341</v>
+        <v>0.007796288138576723</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.004745248109145899</v>
+        <v>0.006878546606909753</v>
       </c>
       <c r="C32">
-        <v>0.0006324999999999999</v>
+        <v>0.0009168500000000001</v>
       </c>
       <c r="D32">
-        <v>0.0001986692360547214</v>
+        <v>0.0002879840143506268</v>
       </c>
       <c r="E32">
-        <v>5.062691321535728E-05</v>
+        <v>7.338701246087007E-05</v>
       </c>
       <c r="F32">
-        <v>0.0004394791654143894</v>
+        <v>0.0006370537119528582</v>
       </c>
       <c r="G32">
-        <v>6.530890999649232E-05</v>
+        <v>9.46695243166545E-05</v>
       </c>
       <c r="H32">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I32">
-        <v>0.006148347892401256</v>
+        <v>0.008912431249245999</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.005204035447410706</v>
+        <v>0.007543588774637955</v>
       </c>
       <c r="C33">
-        <v>0.0004743749999999999</v>
+        <v>0.0006876374999999999</v>
       </c>
       <c r="D33">
-        <v>0.0001497660394874053</v>
+        <v>0.0002170956415873955</v>
       </c>
       <c r="E33">
-        <v>8.5912337577576E-05</v>
+        <v>0.0001245355362972341</v>
       </c>
       <c r="F33">
-        <v>0.0003586554108554212</v>
+        <v>0.0005198944086052059</v>
       </c>
       <c r="G33">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="H33">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I33">
-        <v>0.006318244124776108</v>
+        <v>0.00915870691826241</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.005430761748297387</v>
+        <v>0.007872243334271086</v>
       </c>
       <c r="C34">
-        <v>0.000330625</v>
+        <v>0.0004792624999999999</v>
       </c>
       <c r="D34">
-        <v>0.0001711611879856061</v>
+        <v>0.000248109304671309</v>
       </c>
       <c r="E34">
-        <v>0.0001104587197425977</v>
+        <v>0.0001601171180964439</v>
       </c>
       <c r="F34">
-        <v>0.0002424712636769045</v>
+        <v>0.0003514779100429564</v>
       </c>
       <c r="G34">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="H34">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I34">
-        <v>0.006311940882667734</v>
+        <v>0.00914956995774532</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.003809001854896201</v>
+        <v>0.005521396601836493</v>
       </c>
       <c r="C35">
-        <v>0.000301875</v>
+        <v>0.0004375874999999999</v>
       </c>
       <c r="D35">
-        <v>0.0001405966901310336</v>
+        <v>0.0002038040716942895</v>
       </c>
       <c r="E35">
-        <v>8.284403980694829E-05</v>
+        <v>0.0001200878385723328</v>
       </c>
       <c r="F35">
-        <v>0.0001414415704781943</v>
+        <v>0.0002050287808583913</v>
       </c>
       <c r="G35">
-        <v>2.88127544102172E-05</v>
+        <v>4.176596661028876E-05</v>
       </c>
       <c r="H35">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I35">
-        <v>0.004513747220041703</v>
+        <v>0.006542970970269147</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.0033715534625972</v>
+        <v>0.004887286627956114</v>
       </c>
       <c r="C36">
-        <v>0.00020125</v>
+        <v>0.000291725</v>
       </c>
       <c r="D36">
-        <v>9.474994334917484E-05</v>
+        <v>0.0001373462222287603</v>
       </c>
       <c r="E36">
-        <v>8.898063534820371E-05</v>
+        <v>0.0001289832340221353</v>
       </c>
       <c r="F36">
-        <v>0.0001111326625185812</v>
+        <v>0.0001610940421030217</v>
       </c>
       <c r="G36">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H36">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I36">
-        <v>0.003907404042376115</v>
+        <v>0.005664036990122594</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.002696709296428614</v>
+        <v>0.003909055997518695</v>
       </c>
       <c r="C37">
-        <v>0.00020125</v>
+        <v>0.000291725</v>
       </c>
       <c r="D37">
-        <v>0.0001039192927055466</v>
+        <v>0.0001506377921218663</v>
       </c>
       <c r="E37">
-        <v>4.909276433004343E-05</v>
+        <v>7.116316359841948E-05</v>
       </c>
       <c r="F37">
-        <v>9.850395086874244E-05</v>
+        <v>0.0001427879009549511</v>
       </c>
       <c r="G37">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="H37">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I37">
-        <v>0.003174103205234364</v>
+        <v>0.004601069602717988</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.002075212495174542</v>
+        <v>0.003008155851700835</v>
       </c>
       <c r="C38">
-        <v>0.000345</v>
+        <v>0.0005001</v>
       </c>
       <c r="D38">
-        <v>6.112899570914506E-05</v>
+        <v>8.861046595403899E-05</v>
       </c>
       <c r="E38">
-        <v>2.454638216502172E-05</v>
+        <v>3.558158179920974E-05</v>
       </c>
       <c r="F38">
-        <v>7.324652756906489E-05</v>
+        <v>0.0001061756186588097</v>
       </c>
       <c r="G38">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="H38">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I38">
-        <v>0.002600092177391547</v>
+        <v>0.003769003182358007</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.001296340967422658</v>
+        <v>0.001879130776255277</v>
       </c>
       <c r="C39">
-        <v>0.000273125</v>
+        <v>0.0003959125</v>
       </c>
       <c r="D39">
-        <v>4.279029699640153E-05</v>
+        <v>6.202732616782725E-05</v>
       </c>
       <c r="E39">
-        <v>1.0739042197197E-05</v>
+        <v>1.556694203715426E-05</v>
       </c>
       <c r="F39">
-        <v>3.788613494951632E-05</v>
+        <v>5.491842344421194E-05</v>
       </c>
       <c r="G39">
-        <v>1.152510176408688E-05</v>
+        <v>1.670638664411551E-05</v>
       </c>
       <c r="H39">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I39">
-        <v>0.001674241605393682</v>
+        <v>0.002426922396688057</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.0009842588826727585</v>
+        <v>0.001426747441230859</v>
       </c>
       <c r="C40">
-        <v>0.0005893749999999999</v>
+        <v>0.0008543375000000001</v>
       </c>
       <c r="D40">
-        <v>3.362094764002978E-05</v>
+        <v>4.873575627472142E-05</v>
       </c>
       <c r="E40">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F40">
-        <v>3.536039261954858E-05</v>
+        <v>5.125719521459782E-05</v>
       </c>
       <c r="G40">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="H40">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I40">
-        <v>0.001673551295835395</v>
+        <v>0.002425921747963134</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.0007041852168715666</v>
+        <v>0.001020762396978176</v>
       </c>
       <c r="C41">
-        <v>0.0004456249999999999</v>
+        <v>0.0006459625</v>
       </c>
       <c r="D41">
-        <v>2.139514849820076E-05</v>
+        <v>3.101366308391363E-05</v>
       </c>
       <c r="E41">
-        <v>1.534148885313857E-06</v>
+        <v>2.223848862450609E-06</v>
       </c>
       <c r="F41">
-        <v>6.314355824919386E-05</v>
+        <v>9.153070574035323E-05</v>
       </c>
       <c r="G41">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="H41">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I41">
-        <v>0.001258847487802256</v>
+        <v>0.001824781532318575</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.0005201368079164984</v>
+        <v>0.0007539722250406979</v>
       </c>
       <c r="C42">
-        <v>0.0002587499999999999</v>
+        <v>0.000375075</v>
       </c>
       <c r="D42">
-        <v>3.362094764002978E-05</v>
+        <v>4.873575627472142E-05</v>
       </c>
       <c r="E42">
-        <v>3.068297770627715E-06</v>
+        <v>4.447697724901217E-06</v>
       </c>
       <c r="F42">
-        <v>3.283465028958083E-05</v>
+        <v>4.759596698498367E-05</v>
       </c>
       <c r="G42">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="I42">
-        <v>0.0008676192065568814</v>
+        <v>0.001257670623765497</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.0004081073415960217</v>
+        <v>0.0005915782073396246</v>
       </c>
       <c r="C43">
-        <v>0.00023</v>
+        <v>0.0003334000000000001</v>
       </c>
       <c r="D43">
-        <v>3.362094764002978E-05</v>
+        <v>4.873575627472142E-05</v>
       </c>
       <c r="E43">
-        <v>3.068297770627715E-06</v>
+        <v>4.447697724901217E-06</v>
       </c>
       <c r="F43">
-        <v>4.041187727948407E-05</v>
+        <v>5.857965167382605E-05</v>
       </c>
       <c r="G43">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H43">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I43">
-        <v>0.0007439354304661878</v>
+        <v>0.001078382923988813</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.0006721767979228592</v>
+        <v>0.0009743641062064405</v>
       </c>
       <c r="C44">
-        <v>0.0001868749999999999</v>
+        <v>0.0002708875</v>
       </c>
       <c r="D44">
-        <v>3.667739742548703E-05</v>
+        <v>5.316627957242336E-05</v>
       </c>
       <c r="E44">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F44">
-        <v>0.0001111326625185812</v>
+        <v>0.0001610940421030217</v>
       </c>
       <c r="G44">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="I44">
-        <v>0.001038356208639072</v>
+        <v>0.001505165043305507</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.001597753579189653</v>
+        <v>0.002316048014355785</v>
       </c>
       <c r="C45">
-        <v>0.000158125</v>
+        <v>0.0002292125</v>
       </c>
       <c r="D45">
-        <v>5.80725459236878E-05</v>
+        <v>8.417994265633698E-05</v>
       </c>
       <c r="E45">
-        <v>4.909276433004343E-05</v>
+        <v>7.116316359841948E-05</v>
       </c>
       <c r="F45">
-        <v>0.0002424712636769045</v>
+        <v>0.0003514779100429564</v>
       </c>
       <c r="G45">
-        <v>5.76255088204344E-05</v>
+        <v>8.353193322057751E-05</v>
       </c>
       <c r="H45">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I45">
-        <v>0.002166810786068367</v>
+        <v>0.003140933548153017</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.002920768229069566</v>
+        <v>0.004233844032920843</v>
       </c>
       <c r="C46">
-        <v>0.000158125</v>
+        <v>0.0002292125</v>
       </c>
       <c r="D46">
-        <v>0.0001253144412037473</v>
+        <v>0.0001816514552057799</v>
       </c>
       <c r="E46">
-        <v>0.000150346590760758</v>
+        <v>0.0002179371885201597</v>
       </c>
       <c r="F46">
-        <v>0.0003081405642560658</v>
+        <v>0.0004466698440129237</v>
       </c>
       <c r="G46">
-        <v>0.0001133301673468544</v>
+        <v>0.0001642794686671358</v>
       </c>
       <c r="H46">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I46">
-        <v>0.003783365240892278</v>
+        <v>0.005484234657884725</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.003987715527359819</v>
+        <v>0.005780453725312019</v>
       </c>
       <c r="C47">
-        <v>0.0002443749999999999</v>
+        <v>0.0003542375</v>
       </c>
       <c r="D47">
-        <v>0.0001589353888437771</v>
+        <v>0.0002303872114805013</v>
       </c>
       <c r="E47">
-        <v>0.0001196636130544809</v>
+        <v>0.0001734602112711475</v>
       </c>
       <c r="F47">
-        <v>0.0003207692759059049</v>
+        <v>0.0004649759851609942</v>
       </c>
       <c r="G47">
-        <v>9.220081411269503E-05</v>
+        <v>0.0001336510931529241</v>
       </c>
       <c r="H47">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I47">
-        <v>0.004936505053723431</v>
+        <v>0.007155786021353879</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.004401157605447292</v>
+        <v>0.006379764981113598</v>
       </c>
       <c r="C48">
-        <v>0.000359375</v>
+        <v>0.0005209375</v>
       </c>
       <c r="D48">
-        <v>0.0001833869871274351</v>
+        <v>0.0002658313978621167</v>
       </c>
       <c r="E48">
-        <v>6.136595541255427E-05</v>
+        <v>8.895395449802432E-05</v>
       </c>
       <c r="F48">
-        <v>0.0003965415458049375</v>
+        <v>0.000574812832049418</v>
       </c>
       <c r="G48">
-        <v>9.604251470072399E-05</v>
+        <v>0.0001392198887009626</v>
       </c>
       <c r="H48">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I48">
-        <v>0.00551438516706734</v>
+        <v>0.007993460933479354</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.003702307125067176</v>
+        <v>0.005366735632597382</v>
       </c>
       <c r="C49">
-        <v>0.0007043749999999999</v>
+        <v>0.0010210375</v>
       </c>
       <c r="D49">
-        <v>0.0002078385854110932</v>
+        <v>0.0003012755842437326</v>
       </c>
       <c r="E49">
-        <v>4.142201990347414E-05</v>
+        <v>6.004391928616642E-05</v>
       </c>
       <c r="F49">
-        <v>0.0004874682696837768</v>
+        <v>0.0007066170483155268</v>
       </c>
       <c r="G49">
-        <v>0.0001286969696989702</v>
+        <v>0.0001865546508592898</v>
       </c>
       <c r="H49">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I49">
-        <v>0.005279448218019778</v>
+        <v>0.007652904503859979</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.948074851838941</v>
+        <v>1.324036476984716</v>
       </c>
       <c r="C2">
-        <v>0.07801560000000002</v>
+        <v>0.0530244</v>
       </c>
       <c r="D2">
-        <v>0.2446229316142181</v>
+        <v>0.1662614166280199</v>
       </c>
       <c r="E2">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F2">
-        <v>0.2503980388577065</v>
+        <v>0.1701865495055676</v>
       </c>
       <c r="G2">
-        <v>0.3709787647137514</v>
+        <v>0.2521409360651951</v>
       </c>
       <c r="H2">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I2">
-        <v>3.045813050734033</v>
+        <v>2.070129685951806</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.025603156362199</v>
+        <v>1.376729679759071</v>
       </c>
       <c r="C3">
-        <v>0.06841367999999999</v>
+        <v>0.04649832000000001</v>
       </c>
       <c r="D3">
-        <v>0.2242376873130333</v>
+        <v>0.1524062985756848</v>
       </c>
       <c r="E3">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F3">
-        <v>0.1962865982571003</v>
+        <v>0.1334089477056356</v>
       </c>
       <c r="G3">
-        <v>0.3198092799256474</v>
+        <v>0.2173628759182713</v>
       </c>
       <c r="H3">
-        <v>0.08162528361597397</v>
+        <v>0.05547777224768956</v>
       </c>
       <c r="I3">
-        <v>3.010334706553571</v>
+        <v>2.046016330249067</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.135552388231546</v>
+        <v>1.45145822187543</v>
       </c>
       <c r="C4">
-        <v>0.07321464000000003</v>
+        <v>0.04976136000000003</v>
       </c>
       <c r="D4">
-        <v>0.220840146596169</v>
+        <v>0.150097112233629</v>
       </c>
       <c r="E4">
-        <v>0.0884615822621399</v>
+        <v>0.06012415879004475</v>
       </c>
       <c r="F4">
-        <v>0.2217508055985619</v>
+        <v>0.1507160544350155</v>
       </c>
       <c r="G4">
-        <v>0.2878283519330827</v>
+        <v>0.1956265883264443</v>
       </c>
       <c r="H4">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I4">
-        <v>3.101852717908749</v>
+        <v>2.108217834067554</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.124275543937254</v>
+        <v>1.443793756017342</v>
       </c>
       <c r="C5">
-        <v>0.05401080000000002</v>
+        <v>0.0367092</v>
       </c>
       <c r="D5">
-        <v>0.2038524430118485</v>
+        <v>0.1385511805233499</v>
       </c>
       <c r="E5">
-        <v>0.0884615822621399</v>
+        <v>0.06012415879004475</v>
       </c>
       <c r="F5">
-        <v>0.2238728228770169</v>
+        <v>0.1521583133291304</v>
       </c>
       <c r="G5">
-        <v>0.2174703103494403</v>
+        <v>0.1478067556244247</v>
       </c>
       <c r="H5">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I5">
-        <v>2.971307345067499</v>
+        <v>2.019490835009884</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.196165426313367</v>
+        <v>1.492654725862654</v>
       </c>
       <c r="C6">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D6">
-        <v>0.2412253908973538</v>
+        <v>0.163952230285964</v>
       </c>
       <c r="E6">
-        <v>0.112051337532044</v>
+        <v>0.07615726780072332</v>
       </c>
       <c r="F6">
-        <v>0.1920425637001899</v>
+        <v>0.1305244299174057</v>
       </c>
       <c r="G6">
-        <v>0.230262681546466</v>
+        <v>0.1565012706611552</v>
       </c>
       <c r="H6">
-        <v>0.04452288197234942</v>
+        <v>0.03026060304419431</v>
       </c>
       <c r="I6">
-        <v>3.08108324196177</v>
+        <v>2.094101567572097</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.241272803490535</v>
+        <v>1.523312589295005</v>
       </c>
       <c r="C7">
-        <v>0.05641127999999999</v>
+        <v>0.03834072</v>
       </c>
       <c r="D7">
-        <v>0.2514180130479462</v>
+        <v>0.1708797893121314</v>
       </c>
       <c r="E7">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F7">
-        <v>0.1687003736371835</v>
+        <v>0.1146595820821408</v>
       </c>
       <c r="G7">
-        <v>0.1854893823568757</v>
+        <v>0.1260704680325976</v>
       </c>
       <c r="H7">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I7">
-        <v>3.105911995520533</v>
+        <v>2.110976779199016</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>2.455532845082082</v>
+        <v>1.668937440598679</v>
       </c>
       <c r="C8">
-        <v>0.06241247999999999</v>
+        <v>0.04241952</v>
       </c>
       <c r="D8">
-        <v>0.23782785018049</v>
+        <v>0.161643043943908</v>
       </c>
       <c r="E8">
-        <v>0.2005129197941839</v>
+        <v>0.1362814265907681</v>
       </c>
       <c r="F8">
-        <v>0.1835544945863694</v>
+        <v>0.1247553943409457</v>
       </c>
       <c r="G8">
-        <v>0.121527526371746</v>
+        <v>0.08259789284894303</v>
       </c>
       <c r="H8">
-        <v>0.08162528361597397</v>
+        <v>0.05547777224768956</v>
       </c>
       <c r="I8">
-        <v>3.342993399630845</v>
+        <v>2.272112490570934</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>2.709261841703652</v>
+        <v>1.841387922405662</v>
       </c>
       <c r="C9">
-        <v>0.05281056000000001</v>
+        <v>0.03589343999999999</v>
       </c>
       <c r="D9">
-        <v>0.2276352280298974</v>
+        <v>0.1547154849177404</v>
       </c>
       <c r="E9">
-        <v>0.3656412066835118</v>
+        <v>0.2485131896655181</v>
       </c>
       <c r="F9">
-        <v>0.1718833995548662</v>
+        <v>0.1168229704233133</v>
       </c>
       <c r="G9">
-        <v>0.121527526371746</v>
+        <v>0.08259789284894303</v>
       </c>
       <c r="H9">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I9">
-        <v>3.700703124644748</v>
+        <v>2.51523493714607</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>2.603541426444664</v>
+        <v>1.769533554986085</v>
       </c>
       <c r="C10">
-        <v>0.06001199999999998</v>
+        <v>0.04078799999999998</v>
       </c>
       <c r="D10">
-        <v>0.2819958794997235</v>
+        <v>0.1916624663906339</v>
       </c>
       <c r="E10">
-        <v>0.4423079113106998</v>
+        <v>0.3006207939502238</v>
       </c>
       <c r="F10">
-        <v>0.09230775161279847</v>
+        <v>0.06273826189400161</v>
       </c>
       <c r="G10">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H10">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I10">
-        <v>3.591973008233242</v>
+        <v>2.441334984000157</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.883232997146765</v>
+        <v>1.27996579830071</v>
       </c>
       <c r="C11">
-        <v>0.04920983999999999</v>
+        <v>0.03344616000000001</v>
       </c>
       <c r="D11">
-        <v>0.2004549022949842</v>
+        <v>0.1362419941812941</v>
       </c>
       <c r="E11">
-        <v>0.3538463290485596</v>
+        <v>0.240496635160179</v>
       </c>
       <c r="F11">
-        <v>0.04774538876524061</v>
+        <v>0.03245082511758705</v>
       </c>
       <c r="G11">
-        <v>0.07675422718215541</v>
+        <v>0.05216709022038515</v>
       </c>
       <c r="H11">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I11">
-        <v>2.633505125423879</v>
+        <v>1.789898804502253</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.574529384590519</v>
+        <v>1.070151045435548</v>
       </c>
       <c r="C12">
-        <v>0.05401080000000002</v>
+        <v>0.0367092</v>
       </c>
       <c r="D12">
-        <v>0.1766721172769353</v>
+        <v>0.1200776897869033</v>
       </c>
       <c r="E12">
-        <v>0.2771796244213718</v>
+        <v>0.1883890308754735</v>
       </c>
       <c r="F12">
-        <v>0.04244034556910276</v>
+        <v>0.02884517788229959</v>
       </c>
       <c r="G12">
-        <v>0.09594278397769425</v>
+        <v>0.06520886277548152</v>
       </c>
       <c r="H12">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I12">
-        <v>2.250456977150523</v>
+        <v>1.529554742118502</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.299656304917152</v>
+        <v>0.8833296901446519</v>
       </c>
       <c r="C13">
-        <v>0.03600720000000001</v>
+        <v>0.02447279999999999</v>
       </c>
       <c r="D13">
-        <v>0.1426967101082937</v>
+        <v>0.09698582636634492</v>
       </c>
       <c r="E13">
-        <v>0.2064103586116599</v>
+        <v>0.1402897038434377</v>
       </c>
       <c r="F13">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G13">
-        <v>0.04477329918959064</v>
+        <v>0.03043080262855798</v>
       </c>
       <c r="H13">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I13">
-        <v>1.765605006268697</v>
+        <v>1.20001827960554</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.995181508971269</v>
+        <v>0.6763891119762733</v>
       </c>
       <c r="C14">
-        <v>0.03240648</v>
+        <v>0.02202552</v>
       </c>
       <c r="D14">
-        <v>0.07474589577101108</v>
+        <v>0.05080209952522823</v>
       </c>
       <c r="E14">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F14">
-        <v>0.02652521598068922</v>
+        <v>0.01802823617643725</v>
       </c>
       <c r="G14">
-        <v>0.03198092799256474</v>
+        <v>0.02173628759182716</v>
       </c>
       <c r="H14">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I14">
-        <v>1.277460490781325</v>
+        <v>0.8682439928345774</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.5849862977663977</v>
+        <v>0.3975941663883195</v>
       </c>
       <c r="C15">
-        <v>0.01440288000000001</v>
+        <v>0.00978912</v>
       </c>
       <c r="D15">
-        <v>0.04077048860236971</v>
+        <v>0.02771023610466999</v>
       </c>
       <c r="E15">
-        <v>0.05897438817475995</v>
+        <v>0.04008277252669649</v>
       </c>
       <c r="F15">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G15">
-        <v>0.04477329918959064</v>
+        <v>0.03043080262855798</v>
       </c>
       <c r="H15">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I15">
-        <v>0.7725480068463942</v>
+        <v>0.5250731204300928</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.4708082492866911</v>
+        <v>0.3199914495751776</v>
       </c>
       <c r="C16">
-        <v>0.02760552</v>
+        <v>0.01876248</v>
       </c>
       <c r="D16">
-        <v>0.04756557003609799</v>
+        <v>0.03232860878878161</v>
       </c>
       <c r="E16">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F16">
-        <v>0.01167109503150326</v>
+        <v>0.007932423917632384</v>
       </c>
       <c r="G16">
-        <v>0.05116948478810361</v>
+        <v>0.03477806014692339</v>
       </c>
       <c r="H16">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I16">
-        <v>0.6339327159235487</v>
+        <v>0.430861288027223</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2988363737987381</v>
+        <v>0.2031083452393343</v>
       </c>
       <c r="C17">
-        <v>0.03720744</v>
+        <v>0.02528856000000001</v>
       </c>
       <c r="D17">
-        <v>0.02378278501804899</v>
+        <v>0.01616430439439081</v>
       </c>
       <c r="E17">
-        <v>0.005897438817476</v>
+        <v>0.00400827725266965</v>
       </c>
       <c r="F17">
-        <v>0.02440319870223408</v>
+        <v>0.01658597728232226</v>
       </c>
       <c r="G17">
-        <v>0.05116948478810361</v>
+        <v>0.03477806014692339</v>
       </c>
       <c r="I17">
-        <v>0.4412967211246007</v>
+        <v>0.2999335243156404</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2043928028340423</v>
+        <v>0.1389184436778465</v>
       </c>
       <c r="C18">
-        <v>0.03240648</v>
+        <v>0.02202552</v>
       </c>
       <c r="D18">
-        <v>0.02378278501804899</v>
+        <v>0.01616430439439081</v>
       </c>
       <c r="E18">
-        <v>0.005897438817476</v>
+        <v>0.00400827725266965</v>
       </c>
       <c r="F18">
-        <v>0.01273210367073084</v>
+        <v>0.008653553364689879</v>
       </c>
       <c r="G18">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="I18">
-        <v>0.3495696519239407</v>
+        <v>0.2375899313916166</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2114408305179748</v>
+        <v>0.1437087348391516</v>
       </c>
       <c r="C19">
-        <v>0.02760552</v>
+        <v>0.01876248</v>
       </c>
       <c r="D19">
-        <v>0.03397540716864141</v>
+        <v>0.02309186342055831</v>
       </c>
       <c r="E19">
-        <v>0.02948719408737998</v>
+        <v>0.02004138626334824</v>
       </c>
       <c r="F19">
-        <v>0.02228118142377896</v>
+        <v>0.01514371838820728</v>
       </c>
       <c r="G19">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="I19">
-        <v>0.3823558035843916</v>
+        <v>0.2598735005765542</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.3622686229541303</v>
+        <v>0.2462209656910797</v>
       </c>
       <c r="C20">
-        <v>0.01680336</v>
+        <v>0.01142064</v>
       </c>
       <c r="D20">
-        <v>0.05096311075296212</v>
+        <v>0.03463779513083746</v>
       </c>
       <c r="E20">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F20">
-        <v>0.04456236284755791</v>
+        <v>0.03028743677641456</v>
       </c>
       <c r="G20">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="I20">
-        <v>0.5626478145907208</v>
+        <v>0.3824115020583604</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.8401248999247545</v>
+        <v>0.571002706427562</v>
       </c>
       <c r="C21">
-        <v>0.01440288000000001</v>
+        <v>0.00978912</v>
       </c>
       <c r="D21">
-        <v>0.118913925090245</v>
+        <v>0.080821521971954</v>
       </c>
       <c r="E21">
-        <v>0.224102675064088</v>
+        <v>0.1523145356014466</v>
       </c>
       <c r="F21">
-        <v>0.07639262202438499</v>
+        <v>0.05192132018813925</v>
       </c>
       <c r="G21">
-        <v>0.1854893823568757</v>
+        <v>0.1260704680325976</v>
       </c>
       <c r="H21">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I21">
-        <v>1.466846864789073</v>
+        <v>0.9969631060623986</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.495591474530477</v>
+        <v>1.016499784428931</v>
       </c>
       <c r="C22">
-        <v>0.04800959999999999</v>
+        <v>0.03263039999999998</v>
       </c>
       <c r="D22">
-        <v>0.2140450651624407</v>
+        <v>0.1454787395495172</v>
       </c>
       <c r="E22">
-        <v>0.5779490041126478</v>
+        <v>0.3928111707616255</v>
       </c>
       <c r="F22">
-        <v>0.1273210367073083</v>
+        <v>0.08653553364689878</v>
       </c>
       <c r="G22">
-        <v>0.2878283519330827</v>
+        <v>0.1956265883264443</v>
       </c>
       <c r="H22">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I22">
-        <v>2.787846934089581</v>
+        <v>1.894799385916912</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.070710533539367</v>
+        <v>1.407387543191424</v>
       </c>
       <c r="C23">
-        <v>0.02400479999999999</v>
+        <v>0.01631519999999999</v>
       </c>
       <c r="D23">
-        <v>0.1426967101082937</v>
+        <v>0.09698582636634492</v>
       </c>
       <c r="E23">
-        <v>0.4835899830330319</v>
+        <v>0.3286787347189111</v>
       </c>
       <c r="F23">
-        <v>0.1506632267703147</v>
+        <v>0.1024003814821636</v>
       </c>
       <c r="G23">
-        <v>0.262243609539031</v>
+        <v>0.1782375582529825</v>
       </c>
       <c r="H23">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I23">
-        <v>3.208113666277288</v>
+        <v>2.180439582418817</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.42311191773599</v>
+        <v>1.646902101256677</v>
       </c>
       <c r="C24">
-        <v>0.02880576000000001</v>
+        <v>0.01957824</v>
       </c>
       <c r="D24">
-        <v>0.1766721172769353</v>
+        <v>0.1200776897869033</v>
       </c>
       <c r="E24">
-        <v>0.2123077974291358</v>
+        <v>0.1442979810961074</v>
       </c>
       <c r="F24">
-        <v>0.1602123045233628</v>
+        <v>0.108890546505681</v>
       </c>
       <c r="G24">
-        <v>0.3645825791152379</v>
+        <v>0.2477936785468294</v>
       </c>
       <c r="H24">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I24">
-        <v>3.425056318710461</v>
+        <v>2.327887707917791</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.95653248505966</v>
+        <v>1.329784826378281</v>
       </c>
       <c r="C25">
-        <v>0.05881176000000002</v>
+        <v>0.03997223999999999</v>
       </c>
       <c r="D25">
-        <v>0.2310327687467615</v>
+        <v>0.1570246712597965</v>
       </c>
       <c r="E25">
-        <v>0.159230848071852</v>
+        <v>0.1082234858220805</v>
       </c>
       <c r="F25">
-        <v>0.2047746673709208</v>
+        <v>0.1391779832820954</v>
       </c>
       <c r="G25">
-        <v>0.4285444351003674</v>
+        <v>0.291266253730484</v>
       </c>
       <c r="H25">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I25">
-        <v>3.068608885664461</v>
+        <v>2.085623195835534</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>2.003049467773616</v>
+        <v>1.361400748042894</v>
       </c>
       <c r="C26">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D26">
-        <v>0.220840146596169</v>
+        <v>0.150097112233629</v>
       </c>
       <c r="E26">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F26">
-        <v>0.2673741770853476</v>
+        <v>0.1817246206584876</v>
       </c>
       <c r="G26">
-        <v>0.4413368062973936</v>
+        <v>0.2999607687672147</v>
       </c>
       <c r="H26">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I26">
-        <v>3.165977382119391</v>
+        <v>2.151801064151931</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.967809329353953</v>
+        <v>1.33744929223637</v>
       </c>
       <c r="C27">
-        <v>0.07801560000000002</v>
+        <v>0.0530244</v>
       </c>
       <c r="D27">
-        <v>0.1970573615781201</v>
+        <v>0.1339328078392382</v>
       </c>
       <c r="E27">
-        <v>0.07666670462718797</v>
+        <v>0.05210760428470545</v>
       </c>
       <c r="F27">
-        <v>0.2217508055985619</v>
+        <v>0.1507160544350155</v>
       </c>
       <c r="G27">
-        <v>0.4093558783048289</v>
+        <v>0.2782244811753871</v>
       </c>
       <c r="H27">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I27">
-        <v>3.017440002421176</v>
+        <v>2.050845544537008</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.008687889920762</v>
+        <v>1.365232980971939</v>
       </c>
       <c r="C28">
-        <v>0.06001199999999998</v>
+        <v>0.04078799999999998</v>
       </c>
       <c r="D28">
-        <v>0.1732745765600711</v>
+        <v>0.1177685034448473</v>
       </c>
       <c r="E28">
-        <v>0.112051337532044</v>
+        <v>0.07615726780072332</v>
       </c>
       <c r="F28">
-        <v>0.1877985291432797</v>
+        <v>0.1276399121291756</v>
       </c>
       <c r="G28">
-        <v>0.3006207231301087</v>
+        <v>0.2043211033631751</v>
       </c>
       <c r="H28">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I28">
-        <v>2.938911300559689</v>
+        <v>1.997472407638949</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.125685149474043</v>
+        <v>1.444751814249602</v>
       </c>
       <c r="C29">
-        <v>0.05401080000000002</v>
+        <v>0.0367092</v>
       </c>
       <c r="D29">
-        <v>0.2514180130479462</v>
+        <v>0.1708797893121314</v>
       </c>
       <c r="E29">
-        <v>0.1474359704368998</v>
+        <v>0.1002069313167413</v>
       </c>
       <c r="F29">
-        <v>0.2143237451239689</v>
+        <v>0.1456681483056129</v>
       </c>
       <c r="G29">
-        <v>0.2942245375315955</v>
+        <v>0.1999738458448098</v>
       </c>
       <c r="H29">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I29">
-        <v>3.183564459887877</v>
+        <v>2.163754368957985</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.866317730705323</v>
+        <v>1.268469099513579</v>
       </c>
       <c r="C30">
-        <v>0.05161032000000002</v>
+        <v>0.03507767999999999</v>
       </c>
       <c r="D30">
-        <v>0.2548155537648105</v>
+        <v>0.1731889756541874</v>
       </c>
       <c r="E30">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F30">
-        <v>0.1952255896178727</v>
+        <v>0.1326878182585781</v>
       </c>
       <c r="G30">
-        <v>0.1726970111598497</v>
+        <v>0.1173759529958666</v>
       </c>
       <c r="H30">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I30">
-        <v>2.694389068957272</v>
+        <v>1.831279433190518</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.19475582077658</v>
+        <v>1.491696667630393</v>
       </c>
       <c r="C31">
-        <v>0.03960791999999999</v>
+        <v>0.02692008</v>
       </c>
       <c r="D31">
-        <v>0.1834671987106636</v>
+        <v>0.1246960624710149</v>
       </c>
       <c r="E31">
-        <v>0.0884615822621399</v>
+        <v>0.06012415879004475</v>
       </c>
       <c r="F31">
-        <v>0.1909815550609624</v>
+        <v>0.1298033004703482</v>
       </c>
       <c r="G31">
-        <v>0.2686397951375439</v>
+        <v>0.1825848157713481</v>
       </c>
       <c r="H31">
-        <v>0.1113072049308736</v>
+        <v>0.07565150761048575</v>
       </c>
       <c r="I31">
-        <v>3.077221076878764</v>
+        <v>2.091476592743635</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.507688249943183</v>
+        <v>1.704385595192338</v>
       </c>
       <c r="C32">
-        <v>0.05281056000000001</v>
+        <v>0.03589343999999999</v>
       </c>
       <c r="D32">
-        <v>0.220840146596169</v>
+        <v>0.150097112233629</v>
       </c>
       <c r="E32">
-        <v>0.1946154809767078</v>
+        <v>0.1322731493380984</v>
       </c>
       <c r="F32">
-        <v>0.1846155032255969</v>
+        <v>0.1254765237880032</v>
       </c>
       <c r="G32">
-        <v>0.2174703103494403</v>
+        <v>0.1478067556244247</v>
       </c>
       <c r="H32">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I32">
-        <v>3.444824574049621</v>
+        <v>2.341323480742784</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>2.750140402270455</v>
+        <v>1.869171611141232</v>
       </c>
       <c r="C33">
-        <v>0.03960791999999999</v>
+        <v>0.02692008</v>
       </c>
       <c r="D33">
-        <v>0.1664794951263428</v>
+        <v>0.1131501307607357</v>
       </c>
       <c r="E33">
-        <v>0.3302565737786559</v>
+        <v>0.2244635261495004</v>
       </c>
       <c r="F33">
-        <v>0.1506632267703147</v>
+        <v>0.1024003814821636</v>
       </c>
       <c r="G33">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="H33">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I33">
-        <v>3.597826135421563</v>
+        <v>2.445313144230737</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>2.869956872897312</v>
+        <v>1.950606560883418</v>
       </c>
       <c r="C34">
-        <v>0.02760552</v>
+        <v>0.01876248</v>
       </c>
       <c r="D34">
-        <v>0.1902622801443919</v>
+        <v>0.1293144351551264</v>
       </c>
       <c r="E34">
-        <v>0.4246155948582716</v>
+        <v>0.2885959621922148</v>
       </c>
       <c r="F34">
-        <v>0.1018568293658467</v>
+        <v>0.06922842691751903</v>
       </c>
       <c r="G34">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="H34">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I34">
-        <v>3.708965169296063</v>
+        <v>2.520850352017062</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.012916706531121</v>
+        <v>1.368107155668722</v>
       </c>
       <c r="C35">
-        <v>0.02520504000000001</v>
+        <v>0.01713096</v>
       </c>
       <c r="D35">
-        <v>0.1562868729757504</v>
+        <v>0.1062225717345683</v>
       </c>
       <c r="E35">
-        <v>0.318461696143704</v>
+        <v>0.216446971644161</v>
       </c>
       <c r="F35">
-        <v>0.05941648379674382</v>
+        <v>0.04038324903521943</v>
       </c>
       <c r="G35">
-        <v>0.09594278397769425</v>
+        <v>0.06520886277548152</v>
       </c>
       <c r="H35">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I35">
-        <v>2.705331985068638</v>
+        <v>1.838716940061647</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.781741398498136</v>
+        <v>1.210985605577917</v>
       </c>
       <c r="C36">
-        <v>0.01680336</v>
+        <v>0.01142064</v>
       </c>
       <c r="D36">
-        <v>0.1053237622227884</v>
+        <v>0.07158477660373075</v>
       </c>
       <c r="E36">
-        <v>0.3420514514136078</v>
+        <v>0.2324800806548396</v>
       </c>
       <c r="F36">
-        <v>0.04668438012601302</v>
+        <v>0.03172969567052954</v>
       </c>
       <c r="G36">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H36">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I36">
-        <v>2.4340943129408</v>
+        <v>1.654366440649026</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.425111197691151</v>
+        <v>0.9685968728158809</v>
       </c>
       <c r="C37">
-        <v>0.01680336</v>
+        <v>0.01142064</v>
       </c>
       <c r="D37">
-        <v>0.1155163843733807</v>
+        <v>0.07851233562989827</v>
       </c>
       <c r="E37">
-        <v>0.188718042159232</v>
+        <v>0.1282648720854288</v>
       </c>
       <c r="F37">
-        <v>0.04137933692987518</v>
+        <v>0.0281240484352421</v>
       </c>
       <c r="G37">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="H37">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I37">
-        <v>1.874775912855155</v>
+        <v>1.274217821994535</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.096673107619897</v>
+        <v>0.7453693046990661</v>
       </c>
       <c r="C38">
-        <v>0.02880576000000001</v>
+        <v>0.01957824</v>
       </c>
       <c r="D38">
-        <v>0.06795081433728281</v>
+        <v>0.04618372684111663</v>
       </c>
       <c r="E38">
-        <v>0.094359021079616</v>
+        <v>0.0641324360427144</v>
       </c>
       <c r="F38">
-        <v>0.0307692505375995</v>
+        <v>0.02091275396466721</v>
       </c>
       <c r="G38">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="H38">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I38">
-        <v>1.390964584618462</v>
+        <v>0.9453886468942512</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.6850682908782391</v>
+        <v>0.4656163008788511</v>
       </c>
       <c r="C39">
-        <v>0.02280456</v>
+        <v>0.01549944</v>
       </c>
       <c r="D39">
-        <v>0.04756557003609799</v>
+        <v>0.03232860878878161</v>
       </c>
       <c r="E39">
-        <v>0.04128207172233199</v>
+        <v>0.02805794076868754</v>
       </c>
       <c r="F39">
-        <v>0.01591512958841353</v>
+        <v>0.01081694170586235</v>
       </c>
       <c r="G39">
-        <v>0.03837711359107771</v>
+        <v>0.02608354511019257</v>
       </c>
       <c r="H39">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I39">
-        <v>0.8584332161448852</v>
+        <v>0.5834462110930743</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5201444430742179</v>
+        <v>0.353523487704313</v>
       </c>
       <c r="C40">
-        <v>0.04920983999999999</v>
+        <v>0.03344616000000001</v>
       </c>
       <c r="D40">
-        <v>0.03737294788550554</v>
+        <v>0.02540104976261412</v>
       </c>
       <c r="E40">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F40">
-        <v>0.01485412094918595</v>
+        <v>0.01009581225880486</v>
       </c>
       <c r="G40">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="H40">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I40">
-        <v>0.7303701094199055</v>
+        <v>0.4964063191198284</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.3721358617116358</v>
+        <v>0.2529273733169068</v>
       </c>
       <c r="C41">
-        <v>0.03720744</v>
+        <v>0.02528856000000001</v>
       </c>
       <c r="D41">
-        <v>0.02378278501804899</v>
+        <v>0.01616430439439081</v>
       </c>
       <c r="E41">
-        <v>0.005897438817476</v>
+        <v>0.00400827725266965</v>
       </c>
       <c r="F41">
-        <v>0.02652521598068922</v>
+        <v>0.01802823617643725</v>
       </c>
       <c r="G41">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="H41">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I41">
-        <v>0.5433272634402173</v>
+        <v>0.3692800176831233</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.2748730796733675</v>
+        <v>0.1868213552908969</v>
       </c>
       <c r="C42">
-        <v>0.02160432</v>
+        <v>0.01468368</v>
       </c>
       <c r="D42">
-        <v>0.03737294788550554</v>
+        <v>0.02540104976261412</v>
       </c>
       <c r="E42">
-        <v>0.011794877634952</v>
+        <v>0.0080165545053393</v>
       </c>
       <c r="F42">
-        <v>0.0137931123099584</v>
+        <v>0.009374682811747363</v>
       </c>
       <c r="G42">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="I42">
-        <v>0.4234001934889129</v>
+        <v>0.287769897554252</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2156696471283343</v>
+        <v>0.1465829095359346</v>
       </c>
       <c r="C43">
-        <v>0.01920384000000001</v>
+        <v>0.01305216</v>
       </c>
       <c r="D43">
-        <v>0.03737294788550554</v>
+        <v>0.02540104976261412</v>
       </c>
       <c r="E43">
-        <v>0.011794877634952</v>
+        <v>0.0080165545053393</v>
       </c>
       <c r="F43">
-        <v>0.0169761382276411</v>
+        <v>0.01153807115291984</v>
       </c>
       <c r="G43">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H43">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I43">
-        <v>0.3979845295843392</v>
+        <v>0.2704957840546229</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.3552205952701979</v>
+        <v>0.2414306745297745</v>
       </c>
       <c r="C44">
-        <v>0.01560312</v>
+        <v>0.01060488</v>
       </c>
       <c r="D44">
-        <v>0.04077048860236971</v>
+        <v>0.02771023610466999</v>
       </c>
       <c r="E44">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F44">
-        <v>0.04668438012601302</v>
+        <v>0.03172969567052954</v>
       </c>
       <c r="G44">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="I44">
-        <v>0.5655174988301899</v>
+        <v>0.3843619233200989</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.8443537165351133</v>
+        <v>0.5738768811243447</v>
       </c>
       <c r="C45">
-        <v>0.01320264</v>
+        <v>0.008973359999999998</v>
       </c>
       <c r="D45">
-        <v>0.06455327362041867</v>
+        <v>0.04387454049906082</v>
       </c>
       <c r="E45">
-        <v>0.188718042159232</v>
+        <v>0.1282648720854288</v>
       </c>
       <c r="F45">
-        <v>0.1018568293658467</v>
+        <v>0.06922842691751903</v>
       </c>
       <c r="G45">
-        <v>0.1918855679553885</v>
+        <v>0.130417725550963</v>
       </c>
       <c r="H45">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I45">
-        <v>1.419411030293449</v>
+        <v>0.9647226738587145</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.543518062781217</v>
+        <v>1.049073764325805</v>
       </c>
       <c r="C46">
-        <v>0.01320264</v>
+        <v>0.008973359999999998</v>
       </c>
       <c r="D46">
-        <v>0.1392991693914297</v>
+        <v>0.09467664002428913</v>
       </c>
       <c r="E46">
-        <v>0.5779490041126478</v>
+        <v>0.3928111707616255</v>
       </c>
       <c r="F46">
-        <v>0.1294430539857633</v>
+        <v>0.08797779254101365</v>
       </c>
       <c r="G46">
-        <v>0.3773749503122643</v>
+        <v>0.2564881935835601</v>
       </c>
       <c r="H46">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I46">
-        <v>2.810468801898221</v>
+        <v>1.91017465659909</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.107360277495816</v>
+        <v>1.432297057230211</v>
       </c>
       <c r="C47">
-        <v>0.02040408</v>
+        <v>0.01386792</v>
       </c>
       <c r="D47">
-        <v>0.1766721172769353</v>
+        <v>0.1200776897869033</v>
       </c>
       <c r="E47">
-        <v>0.4600002277631277</v>
+        <v>0.3126456257082325</v>
       </c>
       <c r="F47">
-        <v>0.1347480971819011</v>
+        <v>0.09158343977630126</v>
       </c>
       <c r="G47">
-        <v>0.3070169087286216</v>
+        <v>0.2086683608815406</v>
       </c>
       <c r="H47">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I47">
-        <v>3.258145070747477</v>
+        <v>2.214444130268082</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.325849135697724</v>
+        <v>1.580796083230667</v>
       </c>
       <c r="C48">
-        <v>0.03000599999999999</v>
+        <v>0.02039399999999999</v>
       </c>
       <c r="D48">
-        <v>0.2038524430118485</v>
+        <v>0.1385511805233499</v>
       </c>
       <c r="E48">
-        <v>0.2358975526990398</v>
+        <v>0.160331090106786</v>
       </c>
       <c r="F48">
-        <v>0.1665783563587282</v>
+        <v>0.1132173231880259</v>
       </c>
       <c r="G48">
-        <v>0.3198092799256474</v>
+        <v>0.2173628759182713</v>
       </c>
       <c r="H48">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I48">
-        <v>3.348777090651513</v>
+        <v>2.276043457533392</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.95653248505966</v>
+        <v>1.329784826378281</v>
       </c>
       <c r="C49">
-        <v>0.05881176000000002</v>
+        <v>0.03997223999999999</v>
       </c>
       <c r="D49">
-        <v>0.2310327687467615</v>
+        <v>0.1570246712597965</v>
       </c>
       <c r="E49">
-        <v>0.159230848071852</v>
+        <v>0.1082234858220805</v>
       </c>
       <c r="F49">
-        <v>0.2047746673709208</v>
+        <v>0.1391779832820954</v>
       </c>
       <c r="G49">
-        <v>0.4285444351003674</v>
+        <v>0.291266253730484</v>
       </c>
       <c r="H49">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I49">
-        <v>3.068608885664461</v>
+        <v>2.085623195835534</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.324036476984716</v>
+        <v>1.948074851838941</v>
       </c>
       <c r="C2">
-        <v>0.0530244</v>
+        <v>0.07801560000000002</v>
       </c>
       <c r="D2">
-        <v>0.1662614166280199</v>
+        <v>0.2446229316142181</v>
       </c>
       <c r="E2">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F2">
-        <v>0.1701865495055676</v>
+        <v>0.2503980388577065</v>
       </c>
       <c r="G2">
-        <v>0.2521409360651951</v>
+        <v>0.3709787647137514</v>
       </c>
       <c r="H2">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I2">
-        <v>2.070129685951806</v>
+        <v>3.045813050734033</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.376729679759071</v>
+        <v>2.025603156362199</v>
       </c>
       <c r="C3">
-        <v>0.04649832000000001</v>
+        <v>0.06841367999999999</v>
       </c>
       <c r="D3">
-        <v>0.1524062985756848</v>
+        <v>0.2242376873130333</v>
       </c>
       <c r="E3">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F3">
-        <v>0.1334089477056356</v>
+        <v>0.1962865982571003</v>
       </c>
       <c r="G3">
-        <v>0.2173628759182713</v>
+        <v>0.3198092799256474</v>
       </c>
       <c r="H3">
-        <v>0.05547777224768956</v>
+        <v>0.08162528361597397</v>
       </c>
       <c r="I3">
-        <v>2.046016330249067</v>
+        <v>3.010334706553571</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.45145822187543</v>
+        <v>2.135552388231546</v>
       </c>
       <c r="C4">
-        <v>0.04976136000000003</v>
+        <v>0.07321464000000003</v>
       </c>
       <c r="D4">
-        <v>0.150097112233629</v>
+        <v>0.220840146596169</v>
       </c>
       <c r="E4">
-        <v>0.06012415879004475</v>
+        <v>0.0884615822621399</v>
       </c>
       <c r="F4">
-        <v>0.1507160544350155</v>
+        <v>0.2217508055985619</v>
       </c>
       <c r="G4">
-        <v>0.1956265883264443</v>
+        <v>0.2878283519330827</v>
       </c>
       <c r="H4">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I4">
-        <v>2.108217834067554</v>
+        <v>3.101852717908749</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.443793756017342</v>
+        <v>2.124275543937254</v>
       </c>
       <c r="C5">
-        <v>0.0367092</v>
+        <v>0.05401080000000002</v>
       </c>
       <c r="D5">
-        <v>0.1385511805233499</v>
+        <v>0.2038524430118485</v>
       </c>
       <c r="E5">
-        <v>0.06012415879004475</v>
+        <v>0.0884615822621399</v>
       </c>
       <c r="F5">
-        <v>0.1521583133291304</v>
+        <v>0.2238728228770169</v>
       </c>
       <c r="G5">
-        <v>0.1478067556244247</v>
+        <v>0.2174703103494403</v>
       </c>
       <c r="H5">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I5">
-        <v>2.019490835009884</v>
+        <v>2.971307345067499</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.492654725862654</v>
+        <v>2.196165426313367</v>
       </c>
       <c r="C6">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D6">
-        <v>0.163952230285964</v>
+        <v>0.2412253908973538</v>
       </c>
       <c r="E6">
-        <v>0.07615726780072332</v>
+        <v>0.112051337532044</v>
       </c>
       <c r="F6">
-        <v>0.1305244299174057</v>
+        <v>0.1920425637001899</v>
       </c>
       <c r="G6">
-        <v>0.1565012706611552</v>
+        <v>0.230262681546466</v>
       </c>
       <c r="H6">
-        <v>0.03026060304419431</v>
+        <v>0.04452288197234942</v>
       </c>
       <c r="I6">
-        <v>2.094101567572097</v>
+        <v>3.08108324196177</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.523312589295005</v>
+        <v>2.241272803490535</v>
       </c>
       <c r="C7">
-        <v>0.03834072</v>
+        <v>0.05641127999999999</v>
       </c>
       <c r="D7">
-        <v>0.1708797893121314</v>
+        <v>0.2514180130479462</v>
       </c>
       <c r="E7">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F7">
-        <v>0.1146595820821408</v>
+        <v>0.1687003736371835</v>
       </c>
       <c r="G7">
-        <v>0.1260704680325976</v>
+        <v>0.1854893823568757</v>
       </c>
       <c r="H7">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I7">
-        <v>2.110976779199016</v>
+        <v>3.105911995520533</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.668937440598679</v>
+        <v>2.455532845082082</v>
       </c>
       <c r="C8">
-        <v>0.04241952</v>
+        <v>0.06241247999999999</v>
       </c>
       <c r="D8">
-        <v>0.161643043943908</v>
+        <v>0.23782785018049</v>
       </c>
       <c r="E8">
-        <v>0.1362814265907681</v>
+        <v>0.2005129197941839</v>
       </c>
       <c r="F8">
-        <v>0.1247553943409457</v>
+        <v>0.1835544945863694</v>
       </c>
       <c r="G8">
-        <v>0.08259789284894303</v>
+        <v>0.121527526371746</v>
       </c>
       <c r="H8">
-        <v>0.05547777224768956</v>
+        <v>0.08162528361597397</v>
       </c>
       <c r="I8">
-        <v>2.272112490570934</v>
+        <v>3.342993399630845</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.841387922405662</v>
+        <v>2.709261841703652</v>
       </c>
       <c r="C9">
-        <v>0.03589343999999999</v>
+        <v>0.05281056000000001</v>
       </c>
       <c r="D9">
-        <v>0.1547154849177404</v>
+        <v>0.2276352280298974</v>
       </c>
       <c r="E9">
-        <v>0.2485131896655181</v>
+        <v>0.3656412066835118</v>
       </c>
       <c r="F9">
-        <v>0.1168229704233133</v>
+        <v>0.1718833995548662</v>
       </c>
       <c r="G9">
-        <v>0.08259789284894303</v>
+        <v>0.121527526371746</v>
       </c>
       <c r="H9">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I9">
-        <v>2.51523493714607</v>
+        <v>3.700703124644748</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.769533554986085</v>
+        <v>2.603541426444664</v>
       </c>
       <c r="C10">
-        <v>0.04078799999999998</v>
+        <v>0.06001199999999998</v>
       </c>
       <c r="D10">
-        <v>0.1916624663906339</v>
+        <v>0.2819958794997235</v>
       </c>
       <c r="E10">
-        <v>0.3006207939502238</v>
+        <v>0.4423079113106998</v>
       </c>
       <c r="F10">
-        <v>0.06273826189400161</v>
+        <v>0.09230775161279847</v>
       </c>
       <c r="G10">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H10">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I10">
-        <v>2.441334984000157</v>
+        <v>3.591973008233242</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.27996579830071</v>
+        <v>1.883232997146765</v>
       </c>
       <c r="C11">
-        <v>0.03344616000000001</v>
+        <v>0.04920983999999999</v>
       </c>
       <c r="D11">
-        <v>0.1362419941812941</v>
+        <v>0.2004549022949842</v>
       </c>
       <c r="E11">
-        <v>0.240496635160179</v>
+        <v>0.3538463290485596</v>
       </c>
       <c r="F11">
-        <v>0.03245082511758705</v>
+        <v>0.04774538876524061</v>
       </c>
       <c r="G11">
-        <v>0.05216709022038515</v>
+        <v>0.07675422718215541</v>
       </c>
       <c r="H11">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I11">
-        <v>1.789898804502253</v>
+        <v>2.633505125423879</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.070151045435548</v>
+        <v>1.574529384590519</v>
       </c>
       <c r="C12">
-        <v>0.0367092</v>
+        <v>0.05401080000000002</v>
       </c>
       <c r="D12">
-        <v>0.1200776897869033</v>
+        <v>0.1766721172769353</v>
       </c>
       <c r="E12">
-        <v>0.1883890308754735</v>
+        <v>0.2771796244213718</v>
       </c>
       <c r="F12">
-        <v>0.02884517788229959</v>
+        <v>0.04244034556910276</v>
       </c>
       <c r="G12">
-        <v>0.06520886277548152</v>
+        <v>0.09594278397769425</v>
       </c>
       <c r="H12">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I12">
-        <v>1.529554742118502</v>
+        <v>2.250456977150523</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8833296901446519</v>
+        <v>1.299656304917152</v>
       </c>
       <c r="C13">
-        <v>0.02447279999999999</v>
+        <v>0.03600720000000001</v>
       </c>
       <c r="D13">
-        <v>0.09698582636634492</v>
+        <v>0.1426967101082937</v>
       </c>
       <c r="E13">
-        <v>0.1402897038434377</v>
+        <v>0.2064103586116599</v>
       </c>
       <c r="F13">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G13">
-        <v>0.03043080262855798</v>
+        <v>0.04477329918959064</v>
       </c>
       <c r="H13">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I13">
-        <v>1.20001827960554</v>
+        <v>1.765605006268697</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.6763891119762733</v>
+        <v>0.995181508971269</v>
       </c>
       <c r="C14">
-        <v>0.02202552</v>
+        <v>0.03240648</v>
       </c>
       <c r="D14">
-        <v>0.05080209952522823</v>
+        <v>0.07474589577101108</v>
       </c>
       <c r="E14">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F14">
-        <v>0.01802823617643725</v>
+        <v>0.02652521598068922</v>
       </c>
       <c r="G14">
-        <v>0.02173628759182716</v>
+        <v>0.03198092799256474</v>
       </c>
       <c r="H14">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I14">
-        <v>0.8682439928345774</v>
+        <v>1.277460490781325</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3975941663883195</v>
+        <v>0.5849862977663977</v>
       </c>
       <c r="C15">
-        <v>0.00978912</v>
+        <v>0.01440288000000001</v>
       </c>
       <c r="D15">
-        <v>0.02771023610466999</v>
+        <v>0.04077048860236971</v>
       </c>
       <c r="E15">
-        <v>0.04008277252669649</v>
+        <v>0.05897438817475995</v>
       </c>
       <c r="F15">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G15">
-        <v>0.03043080262855798</v>
+        <v>0.04477329918959064</v>
       </c>
       <c r="H15">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I15">
-        <v>0.5250731204300928</v>
+        <v>0.7725480068463942</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.3199914495751776</v>
+        <v>0.4708082492866911</v>
       </c>
       <c r="C16">
-        <v>0.01876248</v>
+        <v>0.02760552</v>
       </c>
       <c r="D16">
-        <v>0.03232860878878161</v>
+        <v>0.04756557003609799</v>
       </c>
       <c r="E16">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F16">
-        <v>0.007932423917632384</v>
+        <v>0.01167109503150326</v>
       </c>
       <c r="G16">
-        <v>0.03477806014692339</v>
+        <v>0.05116948478810361</v>
       </c>
       <c r="H16">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I16">
-        <v>0.430861288027223</v>
+        <v>0.6339327159235487</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.2031083452393343</v>
+        <v>0.2988363737987381</v>
       </c>
       <c r="C17">
-        <v>0.02528856000000001</v>
+        <v>0.03720744</v>
       </c>
       <c r="D17">
-        <v>0.01616430439439081</v>
+        <v>0.02378278501804899</v>
       </c>
       <c r="E17">
-        <v>0.00400827725266965</v>
+        <v>0.005897438817476</v>
       </c>
       <c r="F17">
-        <v>0.01658597728232226</v>
+        <v>0.02440319870223408</v>
       </c>
       <c r="G17">
-        <v>0.03477806014692339</v>
+        <v>0.05116948478810361</v>
       </c>
       <c r="I17">
-        <v>0.2999335243156404</v>
+        <v>0.4412967211246007</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1389184436778465</v>
+        <v>0.2043928028340423</v>
       </c>
       <c r="C18">
-        <v>0.02202552</v>
+        <v>0.03240648</v>
       </c>
       <c r="D18">
-        <v>0.01616430439439081</v>
+        <v>0.02378278501804899</v>
       </c>
       <c r="E18">
-        <v>0.00400827725266965</v>
+        <v>0.005897438817476</v>
       </c>
       <c r="F18">
-        <v>0.008653553364689879</v>
+        <v>0.01273210367073084</v>
       </c>
       <c r="G18">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="I18">
-        <v>0.2375899313916166</v>
+        <v>0.3495696519239407</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1437087348391516</v>
+        <v>0.2114408305179748</v>
       </c>
       <c r="C19">
-        <v>0.01876248</v>
+        <v>0.02760552</v>
       </c>
       <c r="D19">
-        <v>0.02309186342055831</v>
+        <v>0.03397540716864141</v>
       </c>
       <c r="E19">
-        <v>0.02004138626334824</v>
+        <v>0.02948719408737998</v>
       </c>
       <c r="F19">
-        <v>0.01514371838820728</v>
+        <v>0.02228118142377896</v>
       </c>
       <c r="G19">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="I19">
-        <v>0.2598735005765542</v>
+        <v>0.3823558035843916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2462209656910797</v>
+        <v>0.3622686229541303</v>
       </c>
       <c r="C20">
-        <v>0.01142064</v>
+        <v>0.01680336</v>
       </c>
       <c r="D20">
-        <v>0.03463779513083746</v>
+        <v>0.05096311075296212</v>
       </c>
       <c r="E20">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F20">
-        <v>0.03028743677641456</v>
+        <v>0.04456236284755791</v>
       </c>
       <c r="G20">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="I20">
-        <v>0.3824115020583604</v>
+        <v>0.5626478145907208</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.571002706427562</v>
+        <v>0.8401248999247545</v>
       </c>
       <c r="C21">
-        <v>0.00978912</v>
+        <v>0.01440288000000001</v>
       </c>
       <c r="D21">
-        <v>0.080821521971954</v>
+        <v>0.118913925090245</v>
       </c>
       <c r="E21">
-        <v>0.1523145356014466</v>
+        <v>0.224102675064088</v>
       </c>
       <c r="F21">
-        <v>0.05192132018813925</v>
+        <v>0.07639262202438499</v>
       </c>
       <c r="G21">
-        <v>0.1260704680325976</v>
+        <v>0.1854893823568757</v>
       </c>
       <c r="H21">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I21">
-        <v>0.9969631060623986</v>
+        <v>1.466846864789073</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.016499784428931</v>
+        <v>1.495591474530477</v>
       </c>
       <c r="C22">
-        <v>0.03263039999999998</v>
+        <v>0.04800959999999999</v>
       </c>
       <c r="D22">
-        <v>0.1454787395495172</v>
+        <v>0.2140450651624407</v>
       </c>
       <c r="E22">
-        <v>0.3928111707616255</v>
+        <v>0.5779490041126478</v>
       </c>
       <c r="F22">
-        <v>0.08653553364689878</v>
+        <v>0.1273210367073083</v>
       </c>
       <c r="G22">
-        <v>0.1956265883264443</v>
+        <v>0.2878283519330827</v>
       </c>
       <c r="H22">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I22">
-        <v>1.894799385916912</v>
+        <v>2.787846934089581</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.407387543191424</v>
+        <v>2.070710533539367</v>
       </c>
       <c r="C23">
-        <v>0.01631519999999999</v>
+        <v>0.02400479999999999</v>
       </c>
       <c r="D23">
-        <v>0.09698582636634492</v>
+        <v>0.1426967101082937</v>
       </c>
       <c r="E23">
-        <v>0.3286787347189111</v>
+        <v>0.4835899830330319</v>
       </c>
       <c r="F23">
-        <v>0.1024003814821636</v>
+        <v>0.1506632267703147</v>
       </c>
       <c r="G23">
-        <v>0.1782375582529825</v>
+        <v>0.262243609539031</v>
       </c>
       <c r="H23">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I23">
-        <v>2.180439582418817</v>
+        <v>3.208113666277288</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.646902101256677</v>
+        <v>2.42311191773599</v>
       </c>
       <c r="C24">
-        <v>0.01957824</v>
+        <v>0.02880576000000001</v>
       </c>
       <c r="D24">
-        <v>0.1200776897869033</v>
+        <v>0.1766721172769353</v>
       </c>
       <c r="E24">
-        <v>0.1442979810961074</v>
+        <v>0.2123077974291358</v>
       </c>
       <c r="F24">
-        <v>0.108890546505681</v>
+        <v>0.1602123045233628</v>
       </c>
       <c r="G24">
-        <v>0.2477936785468294</v>
+        <v>0.3645825791152379</v>
       </c>
       <c r="H24">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I24">
-        <v>2.327887707917791</v>
+        <v>3.425056318710461</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.329784826378281</v>
+        <v>1.95653248505966</v>
       </c>
       <c r="C25">
-        <v>0.03997223999999999</v>
+        <v>0.05881176000000002</v>
       </c>
       <c r="D25">
-        <v>0.1570246712597965</v>
+        <v>0.2310327687467615</v>
       </c>
       <c r="E25">
-        <v>0.1082234858220805</v>
+        <v>0.159230848071852</v>
       </c>
       <c r="F25">
-        <v>0.1391779832820954</v>
+        <v>0.2047746673709208</v>
       </c>
       <c r="G25">
-        <v>0.291266253730484</v>
+        <v>0.4285444351003674</v>
       </c>
       <c r="H25">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I25">
-        <v>2.085623195835534</v>
+        <v>3.068608885664461</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.361400748042894</v>
+        <v>2.003049467773616</v>
       </c>
       <c r="C26">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D26">
-        <v>0.150097112233629</v>
+        <v>0.220840146596169</v>
       </c>
       <c r="E26">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F26">
-        <v>0.1817246206584876</v>
+        <v>0.2673741770853476</v>
       </c>
       <c r="G26">
-        <v>0.2999607687672147</v>
+        <v>0.4413368062973936</v>
       </c>
       <c r="H26">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I26">
-        <v>2.151801064151931</v>
+        <v>3.165977382119391</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.33744929223637</v>
+        <v>1.967809329353953</v>
       </c>
       <c r="C27">
-        <v>0.0530244</v>
+        <v>0.07801560000000002</v>
       </c>
       <c r="D27">
-        <v>0.1339328078392382</v>
+        <v>0.1970573615781201</v>
       </c>
       <c r="E27">
-        <v>0.05210760428470545</v>
+        <v>0.07666670462718797</v>
       </c>
       <c r="F27">
-        <v>0.1507160544350155</v>
+        <v>0.2217508055985619</v>
       </c>
       <c r="G27">
-        <v>0.2782244811753871</v>
+        <v>0.4093558783048289</v>
       </c>
       <c r="H27">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I27">
-        <v>2.050845544537008</v>
+        <v>3.017440002421176</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.365232980971939</v>
+        <v>2.008687889920762</v>
       </c>
       <c r="C28">
-        <v>0.04078799999999998</v>
+        <v>0.06001199999999998</v>
       </c>
       <c r="D28">
-        <v>0.1177685034448473</v>
+        <v>0.1732745765600711</v>
       </c>
       <c r="E28">
-        <v>0.07615726780072332</v>
+        <v>0.112051337532044</v>
       </c>
       <c r="F28">
-        <v>0.1276399121291756</v>
+        <v>0.1877985291432797</v>
       </c>
       <c r="G28">
-        <v>0.2043211033631751</v>
+        <v>0.3006207231301087</v>
       </c>
       <c r="H28">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I28">
-        <v>1.997472407638949</v>
+        <v>2.938911300559689</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.444751814249602</v>
+        <v>2.125685149474043</v>
       </c>
       <c r="C29">
-        <v>0.0367092</v>
+        <v>0.05401080000000002</v>
       </c>
       <c r="D29">
-        <v>0.1708797893121314</v>
+        <v>0.2514180130479462</v>
       </c>
       <c r="E29">
-        <v>0.1002069313167413</v>
+        <v>0.1474359704368998</v>
       </c>
       <c r="F29">
-        <v>0.1456681483056129</v>
+        <v>0.2143237451239689</v>
       </c>
       <c r="G29">
-        <v>0.1999738458448098</v>
+        <v>0.2942245375315955</v>
       </c>
       <c r="H29">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I29">
-        <v>2.163754368957985</v>
+        <v>3.183564459887877</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.268469099513579</v>
+        <v>1.866317730705323</v>
       </c>
       <c r="C30">
-        <v>0.03507767999999999</v>
+        <v>0.05161032000000002</v>
       </c>
       <c r="D30">
-        <v>0.1731889756541874</v>
+        <v>0.2548155537648105</v>
       </c>
       <c r="E30">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F30">
-        <v>0.1326878182585781</v>
+        <v>0.1952255896178727</v>
       </c>
       <c r="G30">
-        <v>0.1173759529958666</v>
+        <v>0.1726970111598497</v>
       </c>
       <c r="H30">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I30">
-        <v>1.831279433190518</v>
+        <v>2.694389068957272</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.491696667630393</v>
+        <v>2.19475582077658</v>
       </c>
       <c r="C31">
-        <v>0.02692008</v>
+        <v>0.03960791999999999</v>
       </c>
       <c r="D31">
-        <v>0.1246960624710149</v>
+        <v>0.1834671987106636</v>
       </c>
       <c r="E31">
-        <v>0.06012415879004475</v>
+        <v>0.0884615822621399</v>
       </c>
       <c r="F31">
-        <v>0.1298033004703482</v>
+        <v>0.1909815550609624</v>
       </c>
       <c r="G31">
-        <v>0.1825848157713481</v>
+        <v>0.2686397951375439</v>
       </c>
       <c r="H31">
-        <v>0.07565150761048575</v>
+        <v>0.1113072049308736</v>
       </c>
       <c r="I31">
-        <v>2.091476592743635</v>
+        <v>3.077221076878764</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.704385595192338</v>
+        <v>2.507688249943183</v>
       </c>
       <c r="C32">
-        <v>0.03589343999999999</v>
+        <v>0.05281056000000001</v>
       </c>
       <c r="D32">
-        <v>0.150097112233629</v>
+        <v>0.220840146596169</v>
       </c>
       <c r="E32">
-        <v>0.1322731493380984</v>
+        <v>0.1946154809767078</v>
       </c>
       <c r="F32">
-        <v>0.1254765237880032</v>
+        <v>0.1846155032255969</v>
       </c>
       <c r="G32">
-        <v>0.1478067556244247</v>
+        <v>0.2174703103494403</v>
       </c>
       <c r="H32">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I32">
-        <v>2.341323480742784</v>
+        <v>3.444824574049621</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.869171611141232</v>
+        <v>2.750140402270455</v>
       </c>
       <c r="C33">
-        <v>0.02692008</v>
+        <v>0.03960791999999999</v>
       </c>
       <c r="D33">
-        <v>0.1131501307607357</v>
+        <v>0.1664794951263428</v>
       </c>
       <c r="E33">
-        <v>0.2244635261495004</v>
+        <v>0.3302565737786559</v>
       </c>
       <c r="F33">
-        <v>0.1024003814821636</v>
+        <v>0.1506632267703147</v>
       </c>
       <c r="G33">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="H33">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I33">
-        <v>2.445313144230737</v>
+        <v>3.597826135421563</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.950606560883418</v>
+        <v>2.869956872897312</v>
       </c>
       <c r="C34">
-        <v>0.01876248</v>
+        <v>0.02760552</v>
       </c>
       <c r="D34">
-        <v>0.1293144351551264</v>
+        <v>0.1902622801443919</v>
       </c>
       <c r="E34">
-        <v>0.2885959621922148</v>
+        <v>0.4246155948582716</v>
       </c>
       <c r="F34">
-        <v>0.06922842691751903</v>
+        <v>0.1018568293658467</v>
       </c>
       <c r="G34">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="H34">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I34">
-        <v>2.520850352017062</v>
+        <v>3.708965169296063</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.368107155668722</v>
+        <v>2.012916706531121</v>
       </c>
       <c r="C35">
-        <v>0.01713096</v>
+        <v>0.02520504000000001</v>
       </c>
       <c r="D35">
-        <v>0.1062225717345683</v>
+        <v>0.1562868729757504</v>
       </c>
       <c r="E35">
-        <v>0.216446971644161</v>
+        <v>0.318461696143704</v>
       </c>
       <c r="F35">
-        <v>0.04038324903521943</v>
+        <v>0.05941648379674382</v>
       </c>
       <c r="G35">
-        <v>0.06520886277548152</v>
+        <v>0.09594278397769425</v>
       </c>
       <c r="H35">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I35">
-        <v>1.838716940061647</v>
+        <v>2.705331985068638</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.210985605577917</v>
+        <v>1.781741398498136</v>
       </c>
       <c r="C36">
-        <v>0.01142064</v>
+        <v>0.01680336</v>
       </c>
       <c r="D36">
-        <v>0.07158477660373075</v>
+        <v>0.1053237622227884</v>
       </c>
       <c r="E36">
-        <v>0.2324800806548396</v>
+        <v>0.3420514514136078</v>
       </c>
       <c r="F36">
-        <v>0.03172969567052954</v>
+        <v>0.04668438012601302</v>
       </c>
       <c r="G36">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H36">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I36">
-        <v>1.654366440649026</v>
+        <v>2.4340943129408</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.9685968728158809</v>
+        <v>1.425111197691151</v>
       </c>
       <c r="C37">
-        <v>0.01142064</v>
+        <v>0.01680336</v>
       </c>
       <c r="D37">
-        <v>0.07851233562989827</v>
+        <v>0.1155163843733807</v>
       </c>
       <c r="E37">
-        <v>0.1282648720854288</v>
+        <v>0.188718042159232</v>
       </c>
       <c r="F37">
-        <v>0.0281240484352421</v>
+        <v>0.04137933692987518</v>
       </c>
       <c r="G37">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="H37">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I37">
-        <v>1.274217821994535</v>
+        <v>1.874775912855155</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.7453693046990661</v>
+        <v>1.096673107619897</v>
       </c>
       <c r="C38">
-        <v>0.01957824</v>
+        <v>0.02880576000000001</v>
       </c>
       <c r="D38">
-        <v>0.04618372684111663</v>
+        <v>0.06795081433728281</v>
       </c>
       <c r="E38">
-        <v>0.0641324360427144</v>
+        <v>0.094359021079616</v>
       </c>
       <c r="F38">
-        <v>0.02091275396466721</v>
+        <v>0.0307692505375995</v>
       </c>
       <c r="G38">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="H38">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I38">
-        <v>0.9453886468942512</v>
+        <v>1.390964584618462</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.4656163008788511</v>
+        <v>0.6850682908782391</v>
       </c>
       <c r="C39">
-        <v>0.01549944</v>
+        <v>0.02280456</v>
       </c>
       <c r="D39">
-        <v>0.03232860878878161</v>
+        <v>0.04756557003609799</v>
       </c>
       <c r="E39">
-        <v>0.02805794076868754</v>
+        <v>0.04128207172233199</v>
       </c>
       <c r="F39">
-        <v>0.01081694170586235</v>
+        <v>0.01591512958841353</v>
       </c>
       <c r="G39">
-        <v>0.02608354511019257</v>
+        <v>0.03837711359107771</v>
       </c>
       <c r="H39">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I39">
-        <v>0.5834462110930743</v>
+        <v>0.8584332161448852</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.353523487704313</v>
+        <v>0.5201444430742179</v>
       </c>
       <c r="C40">
-        <v>0.03344616000000001</v>
+        <v>0.04920983999999999</v>
       </c>
       <c r="D40">
-        <v>0.02540104976261412</v>
+        <v>0.03737294788550554</v>
       </c>
       <c r="E40">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F40">
-        <v>0.01009581225880486</v>
+        <v>0.01485412094918595</v>
       </c>
       <c r="G40">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="H40">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I40">
-        <v>0.4964063191198284</v>
+        <v>0.7303701094199055</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.2529273733169068</v>
+        <v>0.3721358617116358</v>
       </c>
       <c r="C41">
-        <v>0.02528856000000001</v>
+        <v>0.03720744</v>
       </c>
       <c r="D41">
-        <v>0.01616430439439081</v>
+        <v>0.02378278501804899</v>
       </c>
       <c r="E41">
-        <v>0.00400827725266965</v>
+        <v>0.005897438817476</v>
       </c>
       <c r="F41">
-        <v>0.01802823617643725</v>
+        <v>0.02652521598068922</v>
       </c>
       <c r="G41">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="H41">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I41">
-        <v>0.3692800176831233</v>
+        <v>0.5433272634402173</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1868213552908969</v>
+        <v>0.2748730796733675</v>
       </c>
       <c r="C42">
-        <v>0.01468368</v>
+        <v>0.02160432</v>
       </c>
       <c r="D42">
-        <v>0.02540104976261412</v>
+        <v>0.03737294788550554</v>
       </c>
       <c r="E42">
-        <v>0.0080165545053393</v>
+        <v>0.011794877634952</v>
       </c>
       <c r="F42">
-        <v>0.009374682811747363</v>
+        <v>0.0137931123099584</v>
       </c>
       <c r="G42">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="I42">
-        <v>0.287769897554252</v>
+        <v>0.4234001934889129</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1465829095359346</v>
+        <v>0.2156696471283343</v>
       </c>
       <c r="C43">
-        <v>0.01305216</v>
+        <v>0.01920384000000001</v>
       </c>
       <c r="D43">
-        <v>0.02540104976261412</v>
+        <v>0.03737294788550554</v>
       </c>
       <c r="E43">
-        <v>0.0080165545053393</v>
+        <v>0.011794877634952</v>
       </c>
       <c r="F43">
-        <v>0.01153807115291984</v>
+        <v>0.0169761382276411</v>
       </c>
       <c r="G43">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H43">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I43">
-        <v>0.2704957840546229</v>
+        <v>0.3979845295843392</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2414306745297745</v>
+        <v>0.3552205952701979</v>
       </c>
       <c r="C44">
-        <v>0.01060488</v>
+        <v>0.01560312</v>
       </c>
       <c r="D44">
-        <v>0.02771023610466999</v>
+        <v>0.04077048860236971</v>
       </c>
       <c r="E44">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F44">
-        <v>0.03172969567052954</v>
+        <v>0.04668438012601302</v>
       </c>
       <c r="G44">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="I44">
-        <v>0.3843619233200989</v>
+        <v>0.5655174988301899</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5738768811243447</v>
+        <v>0.8443537165351133</v>
       </c>
       <c r="C45">
-        <v>0.008973359999999998</v>
+        <v>0.01320264</v>
       </c>
       <c r="D45">
-        <v>0.04387454049906082</v>
+        <v>0.06455327362041867</v>
       </c>
       <c r="E45">
-        <v>0.1282648720854288</v>
+        <v>0.188718042159232</v>
       </c>
       <c r="F45">
-        <v>0.06922842691751903</v>
+        <v>0.1018568293658467</v>
       </c>
       <c r="G45">
-        <v>0.130417725550963</v>
+        <v>0.1918855679553885</v>
       </c>
       <c r="H45">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I45">
-        <v>0.9647226738587145</v>
+        <v>1.419411030293449</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.049073764325805</v>
+        <v>1.543518062781217</v>
       </c>
       <c r="C46">
-        <v>0.008973359999999998</v>
+        <v>0.01320264</v>
       </c>
       <c r="D46">
-        <v>0.09467664002428913</v>
+        <v>0.1392991693914297</v>
       </c>
       <c r="E46">
-        <v>0.3928111707616255</v>
+        <v>0.5779490041126478</v>
       </c>
       <c r="F46">
-        <v>0.08797779254101365</v>
+        <v>0.1294430539857633</v>
       </c>
       <c r="G46">
-        <v>0.2564881935835601</v>
+        <v>0.3773749503122643</v>
       </c>
       <c r="H46">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I46">
-        <v>1.91017465659909</v>
+        <v>2.810468801898221</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.432297057230211</v>
+        <v>2.107360277495816</v>
       </c>
       <c r="C47">
-        <v>0.01386792</v>
+        <v>0.02040408</v>
       </c>
       <c r="D47">
-        <v>0.1200776897869033</v>
+        <v>0.1766721172769353</v>
       </c>
       <c r="E47">
-        <v>0.3126456257082325</v>
+        <v>0.4600002277631277</v>
       </c>
       <c r="F47">
-        <v>0.09158343977630126</v>
+        <v>0.1347480971819011</v>
       </c>
       <c r="G47">
-        <v>0.2086683608815406</v>
+        <v>0.3070169087286216</v>
       </c>
       <c r="H47">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I47">
-        <v>2.214444130268082</v>
+        <v>3.258145070747477</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.580796083230667</v>
+        <v>2.325849135697724</v>
       </c>
       <c r="C48">
-        <v>0.02039399999999999</v>
+        <v>0.03000599999999999</v>
       </c>
       <c r="D48">
-        <v>0.1385511805233499</v>
+        <v>0.2038524430118485</v>
       </c>
       <c r="E48">
-        <v>0.160331090106786</v>
+        <v>0.2358975526990398</v>
       </c>
       <c r="F48">
-        <v>0.1132173231880259</v>
+        <v>0.1665783563587282</v>
       </c>
       <c r="G48">
-        <v>0.2173628759182713</v>
+        <v>0.3198092799256474</v>
       </c>
       <c r="H48">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I48">
-        <v>2.276043457533392</v>
+        <v>3.348777090651513</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.329784826378281</v>
+        <v>1.95653248505966</v>
       </c>
       <c r="C49">
-        <v>0.03997223999999999</v>
+        <v>0.05881176000000002</v>
       </c>
       <c r="D49">
-        <v>0.1570246712597965</v>
+        <v>0.2310327687467615</v>
       </c>
       <c r="E49">
-        <v>0.1082234858220805</v>
+        <v>0.159230848071852</v>
       </c>
       <c r="F49">
-        <v>0.1391779832820954</v>
+        <v>0.2047746673709208</v>
       </c>
       <c r="G49">
-        <v>0.291266253730484</v>
+        <v>0.4285444351003674</v>
       </c>
       <c r="H49">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I49">
-        <v>2.085623195835534</v>
+        <v>3.068608885664461</v>
       </c>
     </row>
   </sheetData>
